--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>等级</t>
   </si>
@@ -66,21 +66,6 @@
   <si>
     <t>1|20;2|20</t>
   </si>
-  <si>
-    <t>Lobby_1</t>
-  </si>
-  <si>
-    <t>Lobby_2</t>
-  </si>
-  <si>
-    <t>Lobby_3</t>
-  </si>
-  <si>
-    <t>Lobby_4</t>
-  </si>
-  <si>
-    <t>Lobby_5</t>
-  </si>
 </sst>
 </file>
 
@@ -88,8 +73,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -108,16 +93,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,8 +126,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,15 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,25 +186,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,30 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +229,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -273,13 +258,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,145 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,15 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,22 +495,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,8 +518,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,145 +564,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,7 +1069,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1192,8 +1177,8 @@
       <c r="D5" s="2">
         <v>500</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1212,8 +1197,8 @@
       <c r="D6" s="2">
         <v>500</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+      <c r="E6" s="2">
+        <v>1</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1232,8 +1217,8 @@
       <c r="D7" s="2">
         <v>500</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
+      <c r="E7" s="2">
+        <v>2</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -1252,8 +1237,8 @@
       <c r="D8" s="2">
         <v>500</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
+      <c r="E8" s="2">
+        <v>3</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
@@ -1272,8 +1257,8 @@
       <c r="D9" s="2">
         <v>500</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
+      <c r="E9" s="2">
+        <v>4</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -1293,8 +1278,8 @@
       <c r="D10" s="2">
         <v>500</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
+      <c r="E10" s="2">
+        <v>5</v>
       </c>
       <c r="F10" s="2">
         <v>6</v>
@@ -1313,8 +1298,8 @@
       <c r="D11" s="2">
         <v>500</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
+      <c r="E11" s="2">
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1333,8 +1318,8 @@
       <c r="D12" s="2">
         <v>500</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
+      <c r="E12" s="2">
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -1354,8 +1339,8 @@
       <c r="D13" s="2">
         <v>500</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
+      <c r="E13" s="2">
+        <v>2</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -1374,8 +1359,8 @@
       <c r="D14" s="2">
         <v>500</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
+      <c r="E14" s="2">
+        <v>3</v>
       </c>
       <c r="F14" s="2">
         <v>4</v>
@@ -1394,8 +1379,8 @@
       <c r="D15" s="2">
         <v>500</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
+      <c r="E15" s="2">
+        <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
@@ -1415,8 +1400,8 @@
       <c r="D16" s="2">
         <v>500</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
+      <c r="E16" s="2">
+        <v>5</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>
@@ -1435,8 +1420,8 @@
       <c r="D17" s="2">
         <v>500</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
+      <c r="E17" s="2">
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1455,8 +1440,8 @@
       <c r="D18" s="2">
         <v>500</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
+      <c r="E18" s="2">
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <v>2</v>
@@ -1475,8 +1460,8 @@
       <c r="D19" s="2">
         <v>500</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
+      <c r="E19" s="2">
+        <v>2</v>
       </c>
       <c r="F19" s="2">
         <v>3</v>
@@ -1495,8 +1480,8 @@
       <c r="D20" s="2">
         <v>500</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
+      <c r="E20" s="2">
+        <v>3</v>
       </c>
       <c r="F20" s="2">
         <v>4</v>
@@ -1515,8 +1500,8 @@
       <c r="D21" s="2">
         <v>500</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
+      <c r="E21" s="2">
+        <v>4</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
@@ -1535,8 +1520,8 @@
       <c r="D22" s="2">
         <v>500</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>20</v>
+      <c r="E22" s="2">
+        <v>5</v>
       </c>
       <c r="F22" s="2">
         <v>6</v>
@@ -1555,8 +1540,8 @@
       <c r="D23" s="2">
         <v>500</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
+      <c r="E23" s="2">
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1575,8 +1560,8 @@
       <c r="D24" s="2">
         <v>500</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>16</v>
+      <c r="E24" s="2">
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
@@ -1595,8 +1580,8 @@
       <c r="D25" s="2">
         <v>500</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
+      <c r="E25" s="2">
+        <v>2</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -1615,8 +1600,8 @@
       <c r="D26" s="2">
         <v>500</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
+      <c r="E26" s="2">
+        <v>3</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
@@ -1635,8 +1620,8 @@
       <c r="D27" s="2">
         <v>500</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>19</v>
+      <c r="E27" s="2">
+        <v>4</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
@@ -1655,8 +1640,8 @@
       <c r="D28" s="2">
         <v>500</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>20</v>
+      <c r="E28" s="2">
+        <v>5</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
@@ -1675,8 +1660,8 @@
       <c r="D29" s="2">
         <v>500</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>16</v>
+      <c r="E29" s="2">
+        <v>1</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -1695,8 +1680,8 @@
       <c r="D30" s="2">
         <v>500</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
+      <c r="E30" s="2">
+        <v>1</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
@@ -1715,8 +1700,8 @@
       <c r="D31" s="2">
         <v>500</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>17</v>
+      <c r="E31" s="2">
+        <v>2</v>
       </c>
       <c r="F31" s="2">
         <v>3</v>
@@ -1735,8 +1720,8 @@
       <c r="D32" s="2">
         <v>500</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>18</v>
+      <c r="E32" s="2">
+        <v>3</v>
       </c>
       <c r="F32" s="2">
         <v>4</v>
@@ -1755,8 +1740,8 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
+      <c r="E33" s="2">
+        <v>4</v>
       </c>
       <c r="F33" s="2">
         <v>5</v>
@@ -1775,8 +1760,8 @@
       <c r="D34" s="2">
         <v>500</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>20</v>
+      <c r="E34" s="2">
+        <v>5</v>
       </c>
       <c r="F34" s="2">
         <v>6</v>
@@ -1795,8 +1780,8 @@
       <c r="D35" s="2">
         <v>500</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>16</v>
+      <c r="E35" s="2">
+        <v>1</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -1815,8 +1800,8 @@
       <c r="D36" s="2">
         <v>500</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>16</v>
+      <c r="E36" s="2">
+        <v>1</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
@@ -1835,8 +1820,8 @@
       <c r="D37" s="2">
         <v>500</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>17</v>
+      <c r="E37" s="2">
+        <v>2</v>
       </c>
       <c r="F37" s="2">
         <v>3</v>
@@ -1855,8 +1840,8 @@
       <c r="D38" s="2">
         <v>500</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
+      <c r="E38" s="2">
+        <v>3</v>
       </c>
       <c r="F38" s="2">
         <v>4</v>
@@ -1875,8 +1860,8 @@
       <c r="D39" s="2">
         <v>500</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>19</v>
+      <c r="E39" s="2">
+        <v>4</v>
       </c>
       <c r="F39" s="2">
         <v>5</v>
@@ -1895,8 +1880,8 @@
       <c r="D40" s="2">
         <v>500</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
+      <c r="E40" s="2">
+        <v>5</v>
       </c>
       <c r="F40" s="2">
         <v>6</v>
@@ -1915,8 +1900,8 @@
       <c r="D41" s="2">
         <v>500</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>16</v>
+      <c r="E41" s="2">
+        <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -1935,8 +1920,8 @@
       <c r="D42" s="2">
         <v>500</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>16</v>
+      <c r="E42" s="2">
+        <v>1</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
@@ -1955,8 +1940,8 @@
       <c r="D43" s="2">
         <v>500</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>17</v>
+      <c r="E43" s="2">
+        <v>2</v>
       </c>
       <c r="F43" s="2">
         <v>3</v>
@@ -1975,8 +1960,8 @@
       <c r="D44" s="2">
         <v>500</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>18</v>
+      <c r="E44" s="2">
+        <v>3</v>
       </c>
       <c r="F44" s="2">
         <v>4</v>
@@ -1995,8 +1980,8 @@
       <c r="D45" s="2">
         <v>500</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>19</v>
+      <c r="E45" s="2">
+        <v>4</v>
       </c>
       <c r="F45" s="2">
         <v>5</v>
@@ -2015,8 +2000,8 @@
       <c r="D46" s="2">
         <v>500</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>20</v>
+      <c r="E46" s="2">
+        <v>5</v>
       </c>
       <c r="F46" s="2">
         <v>6</v>
@@ -2035,8 +2020,8 @@
       <c r="D47" s="2">
         <v>500</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>16</v>
+      <c r="E47" s="2">
+        <v>1</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -2055,8 +2040,8 @@
       <c r="D48" s="2">
         <v>500</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>16</v>
+      <c r="E48" s="2">
+        <v>1</v>
       </c>
       <c r="F48" s="2">
         <v>2</v>
@@ -2075,8 +2060,8 @@
       <c r="D49" s="2">
         <v>500</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>17</v>
+      <c r="E49" s="2">
+        <v>2</v>
       </c>
       <c r="F49" s="2">
         <v>3</v>
@@ -2095,8 +2080,8 @@
       <c r="D50" s="2">
         <v>500</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>18</v>
+      <c r="E50" s="2">
+        <v>3</v>
       </c>
       <c r="F50" s="2">
         <v>4</v>
@@ -2115,8 +2100,8 @@
       <c r="D51" s="2">
         <v>500</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>19</v>
+      <c r="E51" s="2">
+        <v>4</v>
       </c>
       <c r="F51" s="2">
         <v>5</v>
@@ -2135,8 +2120,8 @@
       <c r="D52" s="2">
         <v>500</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>20</v>
+      <c r="E52" s="2">
+        <v>5</v>
       </c>
       <c r="F52" s="2">
         <v>6</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26950" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,77 +93,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,9 +115,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,16 +145,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,17 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -252,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,21 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -487,48 +472,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +493,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -558,16 +543,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,16 +576,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,115 +594,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,22 +1069,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.3727272727273" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.12727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.1272727272727" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,13 +1138,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="11780"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>等级</t>
   </si>
@@ -67,7 +70,7 @@
     <t>Capability</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
+    <t>1001|20;1002|20</t>
   </si>
 </sst>
 </file>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,6 +107,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -118,37 +166,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,16 +205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -186,19 +229,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,37 +242,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -255,19 +258,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,139 +420,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +467,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -475,20 +493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,32 +523,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +555,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,113 +1073,113 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A52"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.12727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.1272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1190,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>500</v>
@@ -1213,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>500</v>
@@ -1236,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>500</v>
@@ -1259,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>500</v>
@@ -1282,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>500</v>
@@ -1306,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
         <v>500</v>
@@ -1329,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>500</v>
@@ -1352,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
         <v>500</v>
@@ -1376,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
         <v>500</v>
@@ -1399,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2">
         <v>500</v>
@@ -1422,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2">
         <v>500</v>
@@ -1446,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
         <v>500</v>
@@ -1469,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
         <v>500</v>
@@ -1492,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
         <v>500</v>
@@ -1515,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2">
         <v>500</v>
@@ -1538,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2">
         <v>500</v>
@@ -1561,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2">
         <v>500</v>
@@ -1584,7 +1587,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2">
         <v>500</v>
@@ -1607,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2">
         <v>500</v>
@@ -1630,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2">
         <v>500</v>
@@ -1653,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2">
         <v>500</v>
@@ -1676,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2">
         <v>500</v>
@@ -1699,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2">
         <v>500</v>
@@ -1722,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2">
         <v>500</v>
@@ -1745,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2">
         <v>500</v>
@@ -1768,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
         <v>500</v>
@@ -1791,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2">
         <v>500</v>
@@ -1814,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2">
         <v>500</v>
@@ -1837,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2">
         <v>500</v>
@@ -1860,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2">
         <v>500</v>
@@ -1883,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2">
         <v>500</v>
@@ -1906,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2">
         <v>500</v>
@@ -1929,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2">
         <v>500</v>
@@ -1952,7 +1955,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2">
         <v>500</v>
@@ -1975,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2">
         <v>500</v>
@@ -1998,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2">
         <v>500</v>
@@ -2021,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" s="2">
         <v>500</v>
@@ -2044,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2">
         <v>500</v>
@@ -2067,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" s="2">
         <v>500</v>
@@ -2090,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44" s="2">
         <v>500</v>
@@ -2113,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" s="2">
         <v>500</v>
@@ -2136,7 +2139,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2">
         <v>500</v>
@@ -2159,7 +2162,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47" s="2">
         <v>500</v>
@@ -2182,7 +2185,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E48" s="2">
         <v>500</v>
@@ -2205,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" s="2">
         <v>500</v>
@@ -2228,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2">
         <v>500</v>
@@ -2251,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" s="2">
         <v>500</v>
@@ -2274,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52" s="2">
         <v>500</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>序号</t>
   </si>
@@ -70,7 +70,85 @@
     <t>Capability</t>
   </si>
   <si>
-    <t>1001|20;1002|20</t>
+    <t>1002|10</t>
+  </si>
+  <si>
+    <t>1001|20;1002|50</t>
+  </si>
+  <si>
+    <t>1001|50;1002|150</t>
+  </si>
+  <si>
+    <t>1001|150;1004|10</t>
+  </si>
+  <si>
+    <t>1001|1000;1004|80</t>
+  </si>
+  <si>
+    <t>1001|3000;1004|600</t>
+  </si>
+  <si>
+    <t>1001|500;1004|50</t>
+  </si>
+  <si>
+    <t>1001|2000;1004|300</t>
+  </si>
+  <si>
+    <t>1001|7500;1004|1500</t>
+  </si>
+  <si>
+    <t>1001|1000;1004|150</t>
+  </si>
+  <si>
+    <t>1001|3500;1004|600</t>
+  </si>
+  <si>
+    <t>1001|25000;1004|4000</t>
+  </si>
+  <si>
+    <t>1001|5000;1004|50</t>
+  </si>
+  <si>
+    <t>1001|1200;1004|150</t>
+  </si>
+  <si>
+    <t>1001|2500;1004|400</t>
+  </si>
+  <si>
+    <t>1001|5000;1004|1000</t>
+  </si>
+  <si>
+    <t>1003|5000;1004|15000</t>
+  </si>
+  <si>
+    <t>1001|2000;1004|20</t>
+  </si>
+  <si>
+    <t>1001|8000;1004|1500</t>
+  </si>
+  <si>
+    <t>1001|20000;1004|4000</t>
+  </si>
+  <si>
+    <t>1003|5000;1004|12000</t>
+  </si>
+  <si>
+    <t>1003|20000;1004|50000</t>
+  </si>
+  <si>
+    <t>1001|12000;1004|2500</t>
+  </si>
+  <si>
+    <t>1003|2000;1004|5000</t>
+  </si>
+  <si>
+    <t>1003|12000;1004|25000</t>
+  </si>
+  <si>
+    <t>1003|3000;1004|7500</t>
+  </si>
+  <si>
+    <t>1003|7000;1004|15000</t>
   </si>
 </sst>
 </file>
@@ -78,8 +156,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -99,6 +177,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -107,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +228,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -137,22 +277,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,83 +308,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,187 +336,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +547,78 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,88 +648,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,137 +666,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,10 +804,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,20 +1153,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.75833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
@@ -1183,141 +1266,140 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2">
-        <v>500</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2">
-        <v>500</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>500</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>800</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2">
-        <v>500</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2">
-        <v>500</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3"/>
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2">
-        <v>500</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1329,13 +1411,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1344,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1352,13 +1434,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1366,7 +1448,6 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
@@ -1376,13 +1457,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -1399,13 +1480,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="F14" s="2">
         <v>3</v>
@@ -1414,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1422,13 +1503,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="F15" s="2">
         <v>4</v>
@@ -1436,7 +1517,6 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
@@ -1446,13 +1526,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="F16" s="2">
         <v>5</v>
@@ -1462,140 +1542,140 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="E17" s="2">
-        <v>500</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2">
-        <v>500</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>500</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2">
-        <v>500</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2">
-        <v>500</v>
-      </c>
-      <c r="F21" s="2">
-        <v>4</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>6</v>
       </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2">
-        <v>500</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1607,13 +1687,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1630,13 +1710,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -1653,13 +1733,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
@@ -1676,13 +1756,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="F26" s="2">
         <v>3</v>
@@ -1699,13 +1779,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="F27" s="2">
         <v>4</v>
@@ -1722,13 +1802,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2">
-        <v>500</v>
+        <v>65000</v>
       </c>
       <c r="F28" s="2">
         <v>5</v>
@@ -1738,140 +1818,140 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2">
-        <v>500</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="2">
-        <v>500</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="2">
-        <v>500</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="2">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="2">
-        <v>500</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="2">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="2">
-        <v>500</v>
-      </c>
-      <c r="F33" s="2">
-        <v>4</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>30</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>6</v>
       </c>
-      <c r="C34" s="2">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="2">
-        <v>500</v>
-      </c>
-      <c r="F34" s="2">
-        <v>5</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
         <v>6</v>
       </c>
     </row>
@@ -1883,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -1906,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -1929,13 +2009,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2">
-        <v>500</v>
+        <v>35000</v>
       </c>
       <c r="F37" s="2">
         <v>2</v>
@@ -1952,13 +2032,13 @@
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2">
-        <v>500</v>
+        <v>65000</v>
       </c>
       <c r="F38" s="2">
         <v>3</v>
@@ -1975,13 +2055,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2">
-        <v>500</v>
+        <v>125000</v>
       </c>
       <c r="F39" s="2">
         <v>4</v>
@@ -1998,13 +2078,13 @@
         <v>6</v>
       </c>
       <c r="C40" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2">
-        <v>500</v>
+        <v>250000</v>
       </c>
       <c r="F40" s="2">
         <v>5</v>
@@ -2014,140 +2094,140 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="2">
-        <v>500</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>38</v>
       </c>
-      <c r="B42" s="2">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="2">
-        <v>500</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
-      <c r="B43" s="2">
-        <v>3</v>
-      </c>
-      <c r="C43" s="2">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="2">
-        <v>500</v>
-      </c>
-      <c r="F43" s="2">
-        <v>2</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>40</v>
       </c>
-      <c r="B44" s="2">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="2">
-        <v>500</v>
-      </c>
-      <c r="F44" s="2">
-        <v>3</v>
-      </c>
-      <c r="G44" s="2">
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="3">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>41</v>
       </c>
-      <c r="B45" s="2">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2">
-        <v>7</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="2">
-        <v>500</v>
-      </c>
-      <c r="F45" s="2">
-        <v>4</v>
-      </c>
-      <c r="G45" s="2">
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="3">
+        <v>180000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>42</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>6</v>
       </c>
-      <c r="C46" s="2">
-        <v>7</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="2">
-        <v>500</v>
-      </c>
-      <c r="F46" s="2">
-        <v>5</v>
-      </c>
-      <c r="G46" s="2">
+      <c r="C46" s="3">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2159,13 +2239,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2">
-        <v>500</v>
+        <v>80000</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -2182,13 +2262,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E48" s="2">
-        <v>500</v>
+        <v>95000</v>
       </c>
       <c r="F48" s="2">
         <v>1</v>
@@ -2205,13 +2285,13 @@
         <v>3</v>
       </c>
       <c r="C49" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2">
-        <v>500</v>
+        <v>125000</v>
       </c>
       <c r="F49" s="2">
         <v>2</v>
@@ -2228,13 +2308,13 @@
         <v>4</v>
       </c>
       <c r="C50" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E50" s="2">
-        <v>500</v>
+        <v>150000</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
@@ -2251,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E51" s="2">
-        <v>500</v>
+        <v>180000</v>
       </c>
       <c r="F51" s="2">
         <v>4</v>
@@ -2274,13 +2354,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E52" s="2">
-        <v>500</v>
+        <v>250000</v>
       </c>
       <c r="F52" s="2">
         <v>5</v>
@@ -2290,9 +2370,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="I6:I15">
-    <sortCondition ref="I6"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -156,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -177,6 +177,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -193,36 +298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,91 +320,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -342,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,26 +551,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +590,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -604,60 +648,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,7 +1158,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1581,7 +1581,7 @@
         <v>800</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -1604,7 +1604,7 @@
         <v>1600</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3">
         <v>3</v>
@@ -1673,7 +1673,7 @@
         <v>35000</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="3">
         <v>6</v>
@@ -1696,7 +1696,7 @@
         <v>800</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>1600</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>3000</v>
       </c>
       <c r="F25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2">
         <v>3</v>
@@ -1765,7 +1765,7 @@
         <v>5500</v>
       </c>
       <c r="F26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="2">
         <v>4</v>
@@ -1788,7 +1788,7 @@
         <v>18000</v>
       </c>
       <c r="F27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
@@ -1811,7 +1811,7 @@
         <v>65000</v>
       </c>
       <c r="F28" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="2">
         <v>6</v>
@@ -1834,7 +1834,7 @@
         <v>3000</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>5500</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>12000</v>
       </c>
       <c r="F31" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
@@ -1903,7 +1903,7 @@
         <v>25000</v>
       </c>
       <c r="F32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
@@ -1926,7 +1926,7 @@
         <v>65000</v>
       </c>
       <c r="F33" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33" s="3">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>150000</v>
       </c>
       <c r="F34" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3">
         <v>6</v>
@@ -1972,7 +1972,7 @@
         <v>8000</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>18000</v>
       </c>
       <c r="F36" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>35000</v>
       </c>
       <c r="F37" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
@@ -2041,7 +2041,7 @@
         <v>65000</v>
       </c>
       <c r="F38" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G38" s="2">
         <v>4</v>
@@ -2064,7 +2064,7 @@
         <v>125000</v>
       </c>
       <c r="F39" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G39" s="2">
         <v>5</v>
@@ -2087,7 +2087,7 @@
         <v>250000</v>
       </c>
       <c r="F40" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
@@ -2110,7 +2110,7 @@
         <v>25000</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>48000</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G42" s="3">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>80000</v>
       </c>
       <c r="F43" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
@@ -2179,7 +2179,7 @@
         <v>125000</v>
       </c>
       <c r="F44" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G44" s="3">
         <v>4</v>
@@ -2202,7 +2202,7 @@
         <v>180000</v>
       </c>
       <c r="F45" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>5</v>
@@ -2225,7 +2225,7 @@
         <v>250000</v>
       </c>
       <c r="F46" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G46" s="3">
         <v>6</v>
@@ -2248,7 +2248,7 @@
         <v>80000</v>
       </c>
       <c r="F47" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>95000</v>
       </c>
       <c r="F48" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>125000</v>
       </c>
       <c r="F49" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G49" s="2">
         <v>3</v>
@@ -2317,7 +2317,7 @@
         <v>150000</v>
       </c>
       <c r="F50" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2">
         <v>4</v>
@@ -2340,7 +2340,7 @@
         <v>180000</v>
       </c>
       <c r="F51" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G51" s="2">
         <v>5</v>
@@ -2363,7 +2363,7 @@
         <v>250000</v>
       </c>
       <c r="F52" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G52" s="2">
         <v>6</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26430" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -178,6 +178,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,36 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,15 +206,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,14 +237,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -274,9 +259,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,37 +320,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -342,25 +342,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +468,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,139 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,17 +560,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,29 +610,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,31 +648,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,22 +1158,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="5.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75833333333333" style="2" customWidth="1"/>
+    <col min="1" max="2" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
     <col min="4" max="4" width="27" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.12727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.1272727272727" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26430" windowHeight="15560"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -73,82 +73,70 @@
     <t>1002|10</t>
   </si>
   <si>
-    <t>1001|20;1002|50</t>
-  </si>
-  <si>
-    <t>1001|50;1002|150</t>
-  </si>
-  <si>
-    <t>1001|150;1004|10</t>
-  </si>
-  <si>
-    <t>1001|1000;1004|80</t>
-  </si>
-  <si>
-    <t>1001|3000;1004|600</t>
-  </si>
-  <si>
-    <t>1001|500;1004|50</t>
-  </si>
-  <si>
-    <t>1001|2000;1004|300</t>
-  </si>
-  <si>
-    <t>1001|7500;1004|1500</t>
-  </si>
-  <si>
-    <t>1001|1000;1004|150</t>
-  </si>
-  <si>
-    <t>1001|3500;1004|600</t>
-  </si>
-  <si>
-    <t>1001|25000;1004|4000</t>
-  </si>
-  <si>
-    <t>1001|5000;1004|50</t>
-  </si>
-  <si>
-    <t>1001|1200;1004|150</t>
-  </si>
-  <si>
-    <t>1001|2500;1004|400</t>
-  </si>
-  <si>
-    <t>1001|5000;1004|1000</t>
-  </si>
-  <si>
-    <t>1003|5000;1004|15000</t>
-  </si>
-  <si>
-    <t>1001|2000;1004|20</t>
-  </si>
-  <si>
-    <t>1001|8000;1004|1500</t>
-  </si>
-  <si>
-    <t>1001|20000;1004|4000</t>
-  </si>
-  <si>
-    <t>1003|5000;1004|12000</t>
-  </si>
-  <si>
-    <t>1003|20000;1004|50000</t>
-  </si>
-  <si>
-    <t>1001|12000;1004|2500</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|5000</t>
-  </si>
-  <si>
-    <t>1003|12000;1004|25000</t>
-  </si>
-  <si>
-    <t>1003|3000;1004|7500</t>
-  </si>
-  <si>
-    <t>1003|7000;1004|15000</t>
+    <t>主木</t>
+  </si>
+  <si>
+    <t>1001|25;1002|50</t>
+  </si>
+  <si>
+    <t>1001|60;1002|120</t>
+  </si>
+  <si>
+    <t>1001|120;1004|10</t>
+  </si>
+  <si>
+    <t>1001|400;1004|80</t>
+  </si>
+  <si>
+    <t>1001|1800;1004|360</t>
+  </si>
+  <si>
+    <t>1001|250;1004|50</t>
+  </si>
+  <si>
+    <t>1001|800;1004|160</t>
+  </si>
+  <si>
+    <t>1001|4000;1004|800</t>
+  </si>
+  <si>
+    <t>1001|600;1004|120</t>
+  </si>
+  <si>
+    <t>1001|8000;1004|1600</t>
+  </si>
+  <si>
+    <t>1001|1200;1004|240</t>
+  </si>
+  <si>
+    <t>1001|2500;1004|500</t>
+  </si>
+  <si>
+    <t>1003|4000;1004|8000</t>
+  </si>
+  <si>
+    <t>1003|8000;1004|5000</t>
+  </si>
+  <si>
+    <t>1003|10000;1004|20000</t>
+  </si>
+  <si>
+    <t>1001|5000;1004|500</t>
+  </si>
+  <si>
+    <t>1001|6000;1004|1200</t>
+  </si>
+  <si>
+    <t>1003|1200;1004|2400</t>
+  </si>
+  <si>
+    <t>1003|2500;1004|5000</t>
+  </si>
+  <si>
+    <t>1003|6000;1004|12000</t>
+  </si>
+  <si>
+    <t>1003|1800;1004|3600</t>
   </si>
 </sst>
 </file>
@@ -156,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -184,10 +172,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,8 +195,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,60 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,25 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +301,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -342,49 +330,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,133 +420,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,8 +542,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +567,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +592,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,137 +654,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,6 +795,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1153,27 +1145,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.12727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.1272727272727" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="9.125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1287,8 +1279,14 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
         <v>200</v>
@@ -1310,8 +1308,11 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3">
         <v>800</v>
@@ -1333,8 +1334,11 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3">
         <v>1600</v>
@@ -1356,8 +1360,14 @@
       <c r="G8" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8" s="4">
+        <v>240</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3">
         <v>4000</v>
@@ -1379,8 +1389,14 @@
       <c r="G9" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9" s="4">
+        <v>800</v>
+      </c>
+      <c r="K9" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1391,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3">
         <v>18000</v>
@@ -1402,8 +1418,14 @@
       <c r="G10" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10" s="4">
+        <v>3600</v>
+      </c>
+      <c r="K10" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1425,8 +1447,11 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1437,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
         <v>200</v>
@@ -1448,8 +1473,11 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="J12" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1460,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2">
         <v>800</v>
@@ -1471,8 +1499,11 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="J13" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1483,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2">
         <v>1600</v>
@@ -1494,8 +1525,14 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14" s="4">
+        <v>240</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1506,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2">
         <v>4000</v>
@@ -1517,8 +1554,14 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15" s="4">
+        <v>800</v>
+      </c>
+      <c r="K15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1529,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
         <v>18000</v>
@@ -1540,8 +1583,14 @@
       <c r="G16" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" s="4">
+        <v>3600</v>
+      </c>
+      <c r="K16" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1552,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1563,8 +1612,11 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1575,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3">
         <v>800</v>
@@ -1586,8 +1638,11 @@
       <c r="G18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1598,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3">
         <v>1600</v>
@@ -1609,8 +1664,14 @@
       <c r="G19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19" s="4">
+        <v>240</v>
+      </c>
+      <c r="K19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1621,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3">
         <v>3000</v>
@@ -1632,8 +1693,14 @@
       <c r="G20" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20" s="4">
+        <v>500</v>
+      </c>
+      <c r="K20" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1644,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3">
         <v>8000</v>
@@ -1655,8 +1722,14 @@
       <c r="G21" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21" s="4">
+        <v>1600</v>
+      </c>
+      <c r="K21" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1667,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3">
         <v>35000</v>
@@ -1678,8 +1751,14 @@
       <c r="G22" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22" s="4">
+        <v>8000</v>
+      </c>
+      <c r="K22" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1690,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2">
         <v>800</v>
@@ -1701,8 +1780,11 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1713,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2">
         <v>1600</v>
@@ -1724,8 +1806,14 @@
       <c r="G24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24" s="4">
+        <v>240</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1736,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2">
         <v>3000</v>
@@ -1747,8 +1835,14 @@
       <c r="G25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="J25" s="4">
+        <v>500</v>
+      </c>
+      <c r="K25" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1759,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2">
         <v>5500</v>
@@ -1770,8 +1864,14 @@
       <c r="G26" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="J26" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K26" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1782,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2">
         <v>18000</v>
@@ -1793,8 +1893,14 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27" s="4">
+        <v>3600</v>
+      </c>
+      <c r="K27" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1816,8 +1922,14 @@
       <c r="G28" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="J28" s="4">
+        <v>16000</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1828,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>3000</v>
@@ -1839,8 +1951,14 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J29" s="4">
+        <v>500</v>
+      </c>
+      <c r="K29" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1851,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E30" s="3">
         <v>5500</v>
@@ -1862,8 +1980,14 @@
       <c r="G30" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="J30" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K30" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1874,7 +1998,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="3">
         <v>12000</v>
@@ -1885,8 +2009,14 @@
       <c r="G31" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="J31" s="4">
+        <v>2400</v>
+      </c>
+      <c r="K31" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1897,7 +2027,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3">
         <v>25000</v>
@@ -1908,8 +2038,14 @@
       <c r="G32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="J32" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K32" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1931,8 +2067,14 @@
       <c r="G33" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="J33" s="4">
+        <v>16000</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1943,7 +2085,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="3">
         <v>150000</v>
@@ -1954,8 +2096,12 @@
       <c r="G34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="J34" s="5"/>
+      <c r="K34" s="4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -1966,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E35" s="2">
         <v>8000</v>
@@ -1977,8 +2123,14 @@
       <c r="G35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="J35" s="4">
+        <v>1600</v>
+      </c>
+      <c r="K35" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -1989,7 +2141,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" s="2">
         <v>18000</v>
@@ -2000,8 +2152,14 @@
       <c r="G36" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="J36" s="4">
+        <v>3600</v>
+      </c>
+      <c r="K36" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2012,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E37" s="2">
         <v>35000</v>
@@ -2023,8 +2181,14 @@
       <c r="G37" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="J37" s="4">
+        <v>8000</v>
+      </c>
+      <c r="K37" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2035,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E38" s="2">
         <v>65000</v>
@@ -2046,8 +2210,14 @@
       <c r="G38" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="J38" s="4">
+        <v>16000</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2058,7 +2228,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E39" s="2">
         <v>125000</v>
@@ -2069,8 +2239,12 @@
       <c r="G39" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="J39" s="5"/>
+      <c r="K39" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2081,7 +2255,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E40" s="2">
         <v>250000</v>
@@ -2092,8 +2266,12 @@
       <c r="G40" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="J40" s="5"/>
+      <c r="K40" s="4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2104,7 +2282,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E41" s="3">
         <v>25000</v>
@@ -2115,8 +2293,14 @@
       <c r="G41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="J41" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K41" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2127,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E42" s="3">
         <v>48000</v>
@@ -2138,8 +2322,14 @@
       <c r="G42" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="J42" s="4">
+        <v>12000</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2150,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E43" s="3">
         <v>80000</v>
@@ -2161,8 +2351,12 @@
       <c r="G43" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="J43" s="5"/>
+      <c r="K43" s="4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2184,8 +2378,12 @@
       <c r="G44" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="J44" s="5"/>
+      <c r="K44" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2196,7 +2394,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E45" s="3">
         <v>180000</v>
@@ -2207,8 +2405,12 @@
       <c r="G45" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="J45" s="5"/>
+      <c r="K45" s="4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2219,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E46" s="3">
         <v>250000</v>
@@ -2230,8 +2432,12 @@
       <c r="G46" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="J46" s="5"/>
+      <c r="K46" s="4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2242,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E47" s="2">
         <v>80000</v>
@@ -2253,8 +2459,12 @@
       <c r="G47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="J47" s="5"/>
+      <c r="K47" s="4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2265,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2">
         <v>95000</v>
@@ -2276,8 +2486,12 @@
       <c r="G48" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="J48" s="5"/>
+      <c r="K48" s="4">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2299,8 +2513,12 @@
       <c r="G49" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="J49" s="5"/>
+      <c r="K49" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2311,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E50" s="2">
         <v>150000</v>
@@ -2322,8 +2540,12 @@
       <c r="G50" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="J50" s="5"/>
+      <c r="K50" s="4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2334,7 +2556,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2">
         <v>180000</v>
@@ -2345,8 +2567,12 @@
       <c r="G51" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="J51" s="5"/>
+      <c r="K51" s="4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2357,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E52" s="2">
         <v>250000</v>
@@ -2367,6 +2593,10 @@
       </c>
       <c r="G52" s="2">
         <v>6</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="4">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
@@ -115,22 +115,16 @@
     <t>1003|4000;1004|8000</t>
   </si>
   <si>
-    <t>1003|8000;1004|5000</t>
+    <t>1003|2500;1004|5000</t>
   </si>
   <si>
     <t>1003|10000;1004|20000</t>
   </si>
   <si>
-    <t>1001|5000;1004|500</t>
-  </si>
-  <si>
     <t>1001|6000;1004|1200</t>
   </si>
   <si>
     <t>1003|1200;1004|2400</t>
-  </si>
-  <si>
-    <t>1003|2500;1004|5000</t>
   </si>
   <si>
     <t>1003|6000;1004|12000</t>
@@ -1148,9 +1142,9 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2282,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E41" s="3">
         <v>25000</v>
@@ -2311,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" s="3">
         <v>48000</v>
@@ -2340,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="3">
         <v>80000</v>
@@ -2367,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E44" s="3">
         <v>125000</v>
@@ -2394,7 +2388,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E45" s="3">
         <v>180000</v>
@@ -2448,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47" s="2">
         <v>80000</v>
@@ -2475,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2">
         <v>95000</v>
@@ -2502,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E49" s="2">
         <v>125000</v>
@@ -2556,7 +2550,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E51" s="2">
         <v>180000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -11,13 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$R$13:$T$36</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -76,61 +77,76 @@
     <t>主木</t>
   </si>
   <si>
+    <t>1001|10;1002|20</t>
+  </si>
+  <si>
+    <t>1001|40;1002|80</t>
+  </si>
+  <si>
+    <t>1001|80;1002|160</t>
+  </si>
+  <si>
+    <t>1001|250;1004|100</t>
+  </si>
+  <si>
+    <t>1001|1200;1004|500</t>
+  </si>
+  <si>
     <t>1001|25;1002|50</t>
   </si>
   <si>
     <t>1001|60;1002|120</t>
   </si>
   <si>
-    <t>1001|120;1004|10</t>
-  </si>
-  <si>
-    <t>1001|400;1004|80</t>
-  </si>
-  <si>
-    <t>1001|1800;1004|360</t>
-  </si>
-  <si>
-    <t>1001|250;1004|50</t>
-  </si>
-  <si>
-    <t>1001|800;1004|160</t>
-  </si>
-  <si>
-    <t>1001|4000;1004|800</t>
-  </si>
-  <si>
-    <t>1001|600;1004|120</t>
-  </si>
-  <si>
-    <t>1001|8000;1004|1600</t>
-  </si>
-  <si>
-    <t>1001|1200;1004|240</t>
-  </si>
-  <si>
-    <t>1001|2500;1004|500</t>
-  </si>
-  <si>
-    <t>1003|4000;1004|8000</t>
+    <t>1001|120;1004|50</t>
+  </si>
+  <si>
+    <t>1001|400;1004|160</t>
+  </si>
+  <si>
+    <t>1001|1800;1004|750</t>
+  </si>
+  <si>
+    <t>1001|800;1004|320</t>
+  </si>
+  <si>
+    <t>1001|4000;1004|1600</t>
+  </si>
+  <si>
+    <t>1001|600;1004|240</t>
+  </si>
+  <si>
+    <t>1001|6000;1004|2400</t>
   </si>
   <si>
     <t>1003|2500;1004|5000</t>
   </si>
   <si>
-    <t>1003|10000;1004|20000</t>
-  </si>
-  <si>
-    <t>1001|6000;1004|1200</t>
-  </si>
-  <si>
-    <t>1003|1200;1004|2400</t>
-  </si>
-  <si>
-    <t>1003|6000;1004|12000</t>
-  </si>
-  <si>
-    <t>1003|1800;1004|3600</t>
+    <t>1001|2500;1004|1000</t>
+  </si>
+  <si>
+    <t>1003|6000;1004|2400</t>
+  </si>
+  <si>
+    <t>1003|3500;1004|7500</t>
+  </si>
+  <si>
+    <t>1001|1800;1004|7500</t>
+  </si>
+  <si>
+    <t>1003|2500;1004|1000</t>
+  </si>
+  <si>
+    <t>1003|5000;1004|10000</t>
+  </si>
+  <si>
+    <t>1003|4000;1004|1600</t>
+  </si>
+  <si>
+    <t>1003|8000;1004|3200</t>
+  </si>
+  <si>
+    <t>1003|8000;1004|16000</t>
   </si>
 </sst>
 </file>
@@ -139,11 +155,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,18 +175,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,19 +205,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +258,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -228,15 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,60 +320,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,7 +348,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,49 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +432,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,78 +534,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -533,11 +563,58 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,9 +636,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,8 +648,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,11 +680,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,31 +701,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,137 +719,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,10 +860,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1139,12 +1260,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1251,7 +1372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1276,11 +1397,12 @@
       <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1294,7 +1416,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1302,11 +1424,12 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="3">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1320,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -1328,9 +1451,10 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="4">
-        <v>120</v>
-      </c>
+      <c r="J7" s="3">
+        <v>80</v>
+      </c>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3">
@@ -1346,20 +1470,18 @@
         <v>21</v>
       </c>
       <c r="E8" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="4">
-        <v>240</v>
-      </c>
-      <c r="K8" s="2">
-        <v>10</v>
-      </c>
+      <c r="J8" s="3">
+        <v>160</v>
+      </c>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3">
@@ -1375,19 +1497,19 @@
         <v>22</v>
       </c>
       <c r="E9" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="J9" s="4">
-        <v>800</v>
-      </c>
-      <c r="K9" s="2">
-        <v>80</v>
+      <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1404,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="3">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
@@ -1412,11 +1534,11 @@
       <c r="G10" s="3">
         <v>6</v>
       </c>
-      <c r="J10" s="4">
-        <v>3600</v>
-      </c>
-      <c r="K10" s="2">
-        <v>360</v>
+      <c r="J10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1456,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>200</v>
@@ -1467,11 +1589,11 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:30">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1482,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2">
         <v>800</v>
@@ -1493,11 +1615,73 @@
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>1</v>
+      </c>
+      <c r="R13" s="19">
+        <v>1</v>
+      </c>
+      <c r="S13" s="20">
+        <v>1</v>
+      </c>
+      <c r="T13" s="19">
+        <v>1</v>
+      </c>
+      <c r="U13" s="18">
+        <v>1</v>
+      </c>
+      <c r="V13" s="21">
+        <f>IF(N13="","",$M13)</f>
+        <v>1</v>
+      </c>
+      <c r="W13" s="21">
+        <f>IF(O13="","",$M13)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="21">
+        <f>IF(P13="","",$M13)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="21">
+        <f>IF(Q13="","",$M13)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="21">
+        <f>IF(R13="","",$M13)</f>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="21">
+        <f>IF(S13="","",$M13)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="21">
+        <f>IF(T13="","",$M13)</f>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="21">
+        <f>IF(U13="","",$M13)</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1508,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>1600</v>
@@ -1519,14 +1703,76 @@
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>240</v>
       </c>
       <c r="K14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>2</v>
+      </c>
+      <c r="P14" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>2</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2</v>
+      </c>
+      <c r="S14" s="10">
+        <v>2</v>
+      </c>
+      <c r="T14" s="14">
+        <v>2</v>
+      </c>
+      <c r="U14" s="12">
+        <v>2</v>
+      </c>
+      <c r="V14" s="21">
+        <f>IF(N14="","",$M14)</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="21">
+        <f>IF(O14="","",$M14)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="21">
+        <f>IF(P14="","",$M14)</f>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="21">
+        <f>IF(Q14="","",$M14)</f>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="21">
+        <f>IF(R14="","",$M14)</f>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="21">
+        <f>IF(S14="","",$M14)</f>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="21">
+        <f>IF(T14="","",$M14)</f>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="21">
+        <f>IF(U14="","",$M14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1537,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2">
         <v>4000</v>
@@ -1548,14 +1794,76 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>800</v>
       </c>
       <c r="K15" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>160</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3</v>
+      </c>
+      <c r="O15" s="10">
+        <v>3</v>
+      </c>
+      <c r="P15" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>3</v>
+      </c>
+      <c r="R15" s="10">
+        <v>3</v>
+      </c>
+      <c r="S15" s="8">
+        <v>3</v>
+      </c>
+      <c r="T15" s="9">
+        <v>3</v>
+      </c>
+      <c r="U15" s="10">
+        <v>3</v>
+      </c>
+      <c r="V15" s="21">
+        <f>IF(N15="","",$M15)</f>
+        <v>1</v>
+      </c>
+      <c r="W15" s="21">
+        <f>IF(O15="","",$M15)</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="21">
+        <f>IF(P15="","",$M15)</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="21">
+        <f>IF(Q15="","",$M15)</f>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="21">
+        <f>IF(R15="","",$M15)</f>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="21">
+        <f>IF(S15="","",$M15)</f>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="21">
+        <f>IF(T15="","",$M15)</f>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="21">
+        <f>IF(U15="","",$M15)</f>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1566,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2">
         <v>18000</v>
@@ -1577,14 +1885,76 @@
       <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>3600</v>
       </c>
       <c r="K16" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>750</v>
+      </c>
+      <c r="M16" s="13">
+        <v>2</v>
+      </c>
+      <c r="N16" s="10">
+        <v>4</v>
+      </c>
+      <c r="O16" s="8">
+        <v>4</v>
+      </c>
+      <c r="P16" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>4</v>
+      </c>
+      <c r="R16" s="8">
+        <v>4</v>
+      </c>
+      <c r="S16" s="9">
+        <v>4</v>
+      </c>
+      <c r="T16" s="12">
+        <v>4</v>
+      </c>
+      <c r="U16" s="8">
+        <v>4</v>
+      </c>
+      <c r="V16" s="21">
+        <f>IF(N16="","",$M16)</f>
+        <v>2</v>
+      </c>
+      <c r="W16" s="21">
+        <f>IF(O16="","",$M16)</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="21">
+        <f>IF(P16="","",$M16)</f>
+        <v>2</v>
+      </c>
+      <c r="Y16" s="21">
+        <f>IF(Q16="","",$M16)</f>
+        <v>2</v>
+      </c>
+      <c r="Z16" s="21">
+        <f>IF(R16="","",$M16)</f>
+        <v>2</v>
+      </c>
+      <c r="AA16" s="21">
+        <f>IF(S16="","",$M16)</f>
+        <v>2</v>
+      </c>
+      <c r="AB16" s="21">
+        <f>IF(T16="","",$M16)</f>
+        <v>2</v>
+      </c>
+      <c r="AC16" s="21">
+        <f>IF(U16="","",$M16)</f>
+        <v>2</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1595,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1606,11 +1976,74 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="3"/>
+      <c r="M17" s="13">
+        <v>2</v>
+      </c>
+      <c r="N17" s="9">
+        <v>5</v>
+      </c>
+      <c r="O17" s="12">
+        <v>5</v>
+      </c>
+      <c r="P17" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>5</v>
+      </c>
+      <c r="R17" s="10">
+        <v>5</v>
+      </c>
+      <c r="S17" s="12">
+        <v>5</v>
+      </c>
+      <c r="T17" s="8">
+        <v>5</v>
+      </c>
+      <c r="U17" s="9">
+        <v>5</v>
+      </c>
+      <c r="V17" s="21">
+        <f>IF(N17="","",$M17)</f>
+        <v>2</v>
+      </c>
+      <c r="W17" s="21">
+        <f>IF(O17="","",$M17)</f>
+        <v>2</v>
+      </c>
+      <c r="X17" s="21">
+        <f>IF(P17="","",$M17)</f>
+        <v>2</v>
+      </c>
+      <c r="Y17" s="21">
+        <f>IF(Q17="","",$M17)</f>
+        <v>2</v>
+      </c>
+      <c r="Z17" s="21">
+        <f>IF(R17="","",$M17)</f>
+        <v>2</v>
+      </c>
+      <c r="AA17" s="21">
+        <f>IF(S17="","",$M17)</f>
+        <v>2</v>
+      </c>
+      <c r="AB17" s="21">
+        <f>IF(T17="","",$M17)</f>
+        <v>2</v>
+      </c>
+      <c r="AC17" s="21">
+        <f>IF(U17="","",$M17)</f>
+        <v>2</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1621,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3">
         <v>800</v>
@@ -1632,11 +2065,74 @@
       <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18" s="3"/>
+      <c r="M18" s="13">
+        <v>2</v>
+      </c>
+      <c r="N18" s="8">
+        <v>6</v>
+      </c>
+      <c r="O18" s="14">
+        <v>6</v>
+      </c>
+      <c r="P18" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>6</v>
+      </c>
+      <c r="R18" s="8">
+        <v>6</v>
+      </c>
+      <c r="S18" s="9">
+        <v>6</v>
+      </c>
+      <c r="T18" s="9">
+        <v>6</v>
+      </c>
+      <c r="U18" s="10">
+        <v>6</v>
+      </c>
+      <c r="V18" s="21">
+        <f>IF(N18="","",$M18)</f>
+        <v>2</v>
+      </c>
+      <c r="W18" s="21">
+        <f>IF(O18="","",$M18)</f>
+        <v>2</v>
+      </c>
+      <c r="X18" s="21">
+        <f>IF(P18="","",$M18)</f>
+        <v>2</v>
+      </c>
+      <c r="Y18" s="21">
+        <f>IF(Q18="","",$M18)</f>
+        <v>2</v>
+      </c>
+      <c r="Z18" s="21">
+        <f>IF(R18="","",$M18)</f>
+        <v>2</v>
+      </c>
+      <c r="AA18" s="21">
+        <f>IF(S18="","",$M18)</f>
+        <v>2</v>
+      </c>
+      <c r="AB18" s="21">
+        <f>IF(T18="","",$M18)</f>
+        <v>2</v>
+      </c>
+      <c r="AC18" s="21">
+        <f>IF(U18="","",$M18)</f>
+        <v>2</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1647,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3">
         <v>1600</v>
@@ -1658,14 +2154,60 @@
       <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>240</v>
       </c>
-      <c r="K19" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="3">
+        <v>50</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="21" t="str">
+        <f>IF(N19="","",$M19)</f>
+        <v/>
+      </c>
+      <c r="W19" s="21" t="str">
+        <f>IF(O19="","",$M19)</f>
+        <v/>
+      </c>
+      <c r="X19" s="21" t="str">
+        <f>IF(P19="","",$M19)</f>
+        <v/>
+      </c>
+      <c r="Y19" s="21" t="str">
+        <f>IF(Q19="","",$M19)</f>
+        <v/>
+      </c>
+      <c r="Z19" s="21" t="str">
+        <f>IF(R19="","",$M19)</f>
+        <v/>
+      </c>
+      <c r="AA19" s="21" t="str">
+        <f>IF(S19="","",$M19)</f>
+        <v/>
+      </c>
+      <c r="AB19" s="21" t="str">
+        <f>IF(T19="","",$M19)</f>
+        <v/>
+      </c>
+      <c r="AC19" s="21" t="str">
+        <f>IF(U19="","",$M19)</f>
+        <v/>
+      </c>
+      <c r="AD19" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1676,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="3">
         <v>3000</v>
@@ -1687,14 +2229,60 @@
       <c r="G20" s="3">
         <v>4</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="21" t="str">
+        <f>IF(N20="","",$M20)</f>
+        <v/>
+      </c>
+      <c r="W20" s="21" t="str">
+        <f>IF(O20="","",$M20)</f>
+        <v/>
+      </c>
+      <c r="X20" s="21" t="str">
+        <f>IF(P20="","",$M20)</f>
+        <v/>
+      </c>
+      <c r="Y20" s="21" t="str">
+        <f>IF(Q20="","",$M20)</f>
+        <v/>
+      </c>
+      <c r="Z20" s="21" t="str">
+        <f>IF(R20="","",$M20)</f>
+        <v/>
+      </c>
+      <c r="AA20" s="21" t="str">
+        <f>IF(S20="","",$M20)</f>
+        <v/>
+      </c>
+      <c r="AB20" s="21" t="str">
+        <f>IF(T20="","",$M20)</f>
+        <v/>
+      </c>
+      <c r="AC20" s="21" t="str">
+        <f>IF(U20="","",$M20)</f>
+        <v/>
+      </c>
+      <c r="AD20" s="21">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1705,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3">
         <v>8000</v>
@@ -1716,14 +2304,60 @@
       <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21" s="3">
+        <v>320</v>
+      </c>
+      <c r="M21" s="7">
+        <v>3</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="21" t="str">
+        <f>IF(N21="","",$M21)</f>
+        <v/>
+      </c>
+      <c r="W21" s="21" t="str">
+        <f>IF(O21="","",$M21)</f>
+        <v/>
+      </c>
+      <c r="X21" s="21" t="str">
+        <f>IF(P21="","",$M21)</f>
+        <v/>
+      </c>
+      <c r="Y21" s="21" t="str">
+        <f>IF(Q21="","",$M21)</f>
+        <v/>
+      </c>
+      <c r="Z21" s="21" t="str">
+        <f>IF(R21="","",$M21)</f>
+        <v/>
+      </c>
+      <c r="AA21" s="21" t="str">
+        <f>IF(S21="","",$M21)</f>
+        <v/>
+      </c>
+      <c r="AB21" s="21" t="str">
+        <f>IF(T21="","",$M21)</f>
+        <v/>
+      </c>
+      <c r="AC21" s="21" t="str">
+        <f>IF(U21="","",$M21)</f>
+        <v/>
+      </c>
+      <c r="AD21" s="21">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1734,7 +2368,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3">
         <v>35000</v>
@@ -1745,14 +2379,60 @@
       <c r="G22" s="3">
         <v>6</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>8000</v>
       </c>
-      <c r="K22" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M22" s="13">
+        <v>4</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="21" t="str">
+        <f>IF(N22="","",$M22)</f>
+        <v/>
+      </c>
+      <c r="W22" s="21" t="str">
+        <f>IF(O22="","",$M22)</f>
+        <v/>
+      </c>
+      <c r="X22" s="21" t="str">
+        <f>IF(P22="","",$M22)</f>
+        <v/>
+      </c>
+      <c r="Y22" s="21" t="str">
+        <f>IF(Q22="","",$M22)</f>
+        <v/>
+      </c>
+      <c r="Z22" s="21" t="str">
+        <f>IF(R22="","",$M22)</f>
+        <v/>
+      </c>
+      <c r="AA22" s="21" t="str">
+        <f>IF(S22="","",$M22)</f>
+        <v/>
+      </c>
+      <c r="AB22" s="21" t="str">
+        <f>IF(T22="","",$M22)</f>
+        <v/>
+      </c>
+      <c r="AC22" s="21" t="str">
+        <f>IF(U22="","",$M22)</f>
+        <v/>
+      </c>
+      <c r="AD22" s="21">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1763,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2">
         <v>800</v>
@@ -1774,11 +2454,57 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="13">
+        <v>4</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="21" t="str">
+        <f>IF(N23="","",$M23)</f>
+        <v/>
+      </c>
+      <c r="W23" s="21" t="str">
+        <f>IF(O23="","",$M23)</f>
+        <v/>
+      </c>
+      <c r="X23" s="21" t="str">
+        <f>IF(P23="","",$M23)</f>
+        <v/>
+      </c>
+      <c r="Y23" s="21" t="str">
+        <f>IF(Q23="","",$M23)</f>
+        <v/>
+      </c>
+      <c r="Z23" s="21" t="str">
+        <f>IF(R23="","",$M23)</f>
+        <v/>
+      </c>
+      <c r="AA23" s="21" t="str">
+        <f>IF(S23="","",$M23)</f>
+        <v/>
+      </c>
+      <c r="AB23" s="21" t="str">
+        <f>IF(T23="","",$M23)</f>
+        <v/>
+      </c>
+      <c r="AC23" s="21" t="str">
+        <f>IF(U23="","",$M23)</f>
+        <v/>
+      </c>
+      <c r="AD23" s="21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1789,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2">
         <v>1600</v>
@@ -1800,14 +2526,60 @@
       <c r="G24" s="2">
         <v>2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>240</v>
       </c>
       <c r="K24" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="M24" s="13">
+        <v>4</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="21" t="str">
+        <f>IF(N24="","",$M24)</f>
+        <v/>
+      </c>
+      <c r="W24" s="21" t="str">
+        <f>IF(O24="","",$M24)</f>
+        <v/>
+      </c>
+      <c r="X24" s="21" t="str">
+        <f>IF(P24="","",$M24)</f>
+        <v/>
+      </c>
+      <c r="Y24" s="21" t="str">
+        <f>IF(Q24="","",$M24)</f>
+        <v/>
+      </c>
+      <c r="Z24" s="21" t="str">
+        <f>IF(R24="","",$M24)</f>
+        <v/>
+      </c>
+      <c r="AA24" s="21" t="str">
+        <f>IF(S24="","",$M24)</f>
+        <v/>
+      </c>
+      <c r="AB24" s="21" t="str">
+        <f>IF(T24="","",$M24)</f>
+        <v/>
+      </c>
+      <c r="AC24" s="21" t="str">
+        <f>IF(U24="","",$M24)</f>
+        <v/>
+      </c>
+      <c r="AD24" s="21">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1818,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2">
         <v>3000</v>
@@ -1829,14 +2601,60 @@
       <c r="G25" s="2">
         <v>3</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>500</v>
       </c>
-      <c r="K25" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25" s="2">
+        <v>100</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="21" t="str">
+        <f>IF(N25="","",$M25)</f>
+        <v/>
+      </c>
+      <c r="W25" s="21" t="str">
+        <f>IF(O25="","",$M25)</f>
+        <v/>
+      </c>
+      <c r="X25" s="21" t="str">
+        <f>IF(P25="","",$M25)</f>
+        <v/>
+      </c>
+      <c r="Y25" s="21" t="str">
+        <f>IF(Q25="","",$M25)</f>
+        <v/>
+      </c>
+      <c r="Z25" s="21" t="str">
+        <f>IF(R25="","",$M25)</f>
+        <v/>
+      </c>
+      <c r="AA25" s="21" t="str">
+        <f>IF(S25="","",$M25)</f>
+        <v/>
+      </c>
+      <c r="AB25" s="21" t="str">
+        <f>IF(T25="","",$M25)</f>
+        <v/>
+      </c>
+      <c r="AC25" s="21" t="str">
+        <f>IF(U25="","",$M25)</f>
+        <v/>
+      </c>
+      <c r="AD25" s="21">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1847,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2">
         <v>5500</v>
@@ -1858,14 +2676,60 @@
       <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>1200</v>
       </c>
-      <c r="K26" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="K26" s="2">
+        <v>240</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5</v>
+      </c>
+      <c r="N26" s="14"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="21" t="str">
+        <f>IF(N26="","",$M26)</f>
+        <v/>
+      </c>
+      <c r="W26" s="21" t="str">
+        <f>IF(O26="","",$M26)</f>
+        <v/>
+      </c>
+      <c r="X26" s="21" t="str">
+        <f>IF(P26="","",$M26)</f>
+        <v/>
+      </c>
+      <c r="Y26" s="21" t="str">
+        <f>IF(Q26="","",$M26)</f>
+        <v/>
+      </c>
+      <c r="Z26" s="21" t="str">
+        <f>IF(R26="","",$M26)</f>
+        <v/>
+      </c>
+      <c r="AA26" s="21" t="str">
+        <f>IF(S26="","",$M26)</f>
+        <v/>
+      </c>
+      <c r="AB26" s="21" t="str">
+        <f>IF(T26="","",$M26)</f>
+        <v/>
+      </c>
+      <c r="AC26" s="21" t="str">
+        <f>IF(U26="","",$M26)</f>
+        <v/>
+      </c>
+      <c r="AD26" s="21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1876,7 +2740,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2">
         <v>18000</v>
@@ -1887,14 +2751,60 @@
       <c r="G27" s="2">
         <v>5</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>3600</v>
       </c>
-      <c r="K27" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="K27" s="2">
+        <v>750</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="21" t="str">
+        <f>IF(N27="","",$M27)</f>
+        <v/>
+      </c>
+      <c r="W27" s="21" t="str">
+        <f>IF(O27="","",$M27)</f>
+        <v/>
+      </c>
+      <c r="X27" s="21" t="str">
+        <f>IF(P27="","",$M27)</f>
+        <v/>
+      </c>
+      <c r="Y27" s="21" t="str">
+        <f>IF(Q27="","",$M27)</f>
+        <v/>
+      </c>
+      <c r="Z27" s="21" t="str">
+        <f>IF(R27="","",$M27)</f>
+        <v/>
+      </c>
+      <c r="AA27" s="21" t="str">
+        <f>IF(S27="","",$M27)</f>
+        <v/>
+      </c>
+      <c r="AB27" s="21" t="str">
+        <f>IF(T27="","",$M27)</f>
+        <v/>
+      </c>
+      <c r="AC27" s="21" t="str">
+        <f>IF(U27="","",$M27)</f>
+        <v/>
+      </c>
+      <c r="AD27" s="21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1905,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2">
-        <v>65000</v>
+        <v>48000</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
@@ -1916,14 +2826,60 @@
       <c r="G28" s="2">
         <v>6</v>
       </c>
-      <c r="J28" s="4">
-        <v>16000</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="2">
+        <v>12000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2400</v>
+      </c>
+      <c r="M28" s="15">
+        <v>6</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="21" t="str">
+        <f>IF(N28="","",$M28)</f>
+        <v/>
+      </c>
+      <c r="W28" s="21" t="str">
+        <f>IF(O28="","",$M28)</f>
+        <v/>
+      </c>
+      <c r="X28" s="21" t="str">
+        <f>IF(P28="","",$M28)</f>
+        <v/>
+      </c>
+      <c r="Y28" s="21" t="str">
+        <f>IF(Q28="","",$M28)</f>
+        <v/>
+      </c>
+      <c r="Z28" s="21" t="str">
+        <f>IF(R28="","",$M28)</f>
+        <v/>
+      </c>
+      <c r="AA28" s="21" t="str">
+        <f>IF(S28="","",$M28)</f>
+        <v/>
+      </c>
+      <c r="AB28" s="21" t="str">
+        <f>IF(T28="","",$M28)</f>
+        <v/>
+      </c>
+      <c r="AC28" s="21" t="str">
+        <f>IF(U28="","",$M28)</f>
+        <v/>
+      </c>
+      <c r="AD28" s="21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1934,10 +2890,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
@@ -1945,14 +2901,60 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="J29" s="4">
-        <v>500</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="J29" s="3">
+        <v>240</v>
+      </c>
+      <c r="K29" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" s="13">
+        <v>6</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="21" t="str">
+        <f>IF(N29="","",$M29)</f>
+        <v/>
+      </c>
+      <c r="W29" s="21" t="str">
+        <f>IF(O29="","",$M29)</f>
+        <v/>
+      </c>
+      <c r="X29" s="21" t="str">
+        <f>IF(P29="","",$M29)</f>
+        <v/>
+      </c>
+      <c r="Y29" s="21" t="str">
+        <f>IF(Q29="","",$M29)</f>
+        <v/>
+      </c>
+      <c r="Z29" s="21" t="str">
+        <f>IF(R29="","",$M29)</f>
+        <v/>
+      </c>
+      <c r="AA29" s="21" t="str">
+        <f>IF(S29="","",$M29)</f>
+        <v/>
+      </c>
+      <c r="AB29" s="21" t="str">
+        <f>IF(T29="","",$M29)</f>
+        <v/>
+      </c>
+      <c r="AC29" s="21" t="str">
+        <f>IF(U29="","",$M29)</f>
+        <v/>
+      </c>
+      <c r="AD29" s="21">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1963,25 +2965,71 @@
         <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E30" s="3">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="F30" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="3">
         <v>2</v>
       </c>
-      <c r="J30" s="4">
-        <v>1200</v>
-      </c>
-      <c r="K30" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="J30" s="3">
+        <v>500</v>
+      </c>
+      <c r="K30" s="3">
+        <v>100</v>
+      </c>
+      <c r="M30" s="15">
+        <v>6</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="21" t="str">
+        <f>IF(N30="","",$M30)</f>
+        <v/>
+      </c>
+      <c r="W30" s="21" t="str">
+        <f>IF(O30="","",$M30)</f>
+        <v/>
+      </c>
+      <c r="X30" s="21" t="str">
+        <f>IF(P30="","",$M30)</f>
+        <v/>
+      </c>
+      <c r="Y30" s="21" t="str">
+        <f>IF(Q30="","",$M30)</f>
+        <v/>
+      </c>
+      <c r="Z30" s="21" t="str">
+        <f>IF(R30="","",$M30)</f>
+        <v/>
+      </c>
+      <c r="AA30" s="21" t="str">
+        <f>IF(S30="","",$M30)</f>
+        <v/>
+      </c>
+      <c r="AB30" s="21" t="str">
+        <f>IF(T30="","",$M30)</f>
+        <v/>
+      </c>
+      <c r="AC30" s="21" t="str">
+        <f>IF(U30="","",$M30)</f>
+        <v/>
+      </c>
+      <c r="AD30" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1992,25 +3040,71 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="F31" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="J31" s="4">
-        <v>2400</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="J31" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K31" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="7">
+        <v>7</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="21" t="str">
+        <f>IF(N31="","",$M31)</f>
+        <v/>
+      </c>
+      <c r="W31" s="21" t="str">
+        <f>IF(O31="","",$M31)</f>
+        <v/>
+      </c>
+      <c r="X31" s="21" t="str">
+        <f>IF(P31="","",$M31)</f>
+        <v/>
+      </c>
+      <c r="Y31" s="21" t="str">
+        <f>IF(Q31="","",$M31)</f>
+        <v/>
+      </c>
+      <c r="Z31" s="21" t="str">
+        <f>IF(R31="","",$M31)</f>
+        <v/>
+      </c>
+      <c r="AA31" s="21" t="str">
+        <f>IF(S31="","",$M31)</f>
+        <v/>
+      </c>
+      <c r="AB31" s="21" t="str">
+        <f>IF(T31="","",$M31)</f>
+        <v/>
+      </c>
+      <c r="AC31" s="21" t="str">
+        <f>IF(U31="","",$M31)</f>
+        <v/>
+      </c>
+      <c r="AD31" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2021,10 +3115,10 @@
         <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E32" s="3">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="F32" s="3">
         <v>5</v>
@@ -2032,14 +3126,60 @@
       <c r="G32" s="3">
         <v>4</v>
       </c>
-      <c r="J32" s="4">
-        <v>5000</v>
-      </c>
-      <c r="K32" s="4">
+      <c r="J32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="21" t="str">
+        <f>IF(N32="","",$M32)</f>
+        <v/>
+      </c>
+      <c r="W32" s="21" t="str">
+        <f>IF(O32="","",$M32)</f>
+        <v/>
+      </c>
+      <c r="X32" s="21" t="str">
+        <f>IF(P32="","",$M32)</f>
+        <v/>
+      </c>
+      <c r="Y32" s="21" t="str">
+        <f>IF(Q32="","",$M32)</f>
+        <v/>
+      </c>
+      <c r="Z32" s="21" t="str">
+        <f>IF(R32="","",$M32)</f>
+        <v/>
+      </c>
+      <c r="AA32" s="21" t="str">
+        <f>IF(S32="","",$M32)</f>
+        <v/>
+      </c>
+      <c r="AB32" s="21" t="str">
+        <f>IF(T32="","",$M32)</f>
+        <v/>
+      </c>
+      <c r="AC32" s="21" t="str">
+        <f>IF(U32="","",$M32)</f>
+        <v/>
+      </c>
+      <c r="AD32" s="21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2050,10 +3190,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="F33" s="3">
         <v>6</v>
@@ -2061,14 +3201,60 @@
       <c r="G33" s="3">
         <v>5</v>
       </c>
-      <c r="J33" s="4">
-        <v>16000</v>
-      </c>
-      <c r="K33" s="4">
+      <c r="J33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33" s="7">
+        <v>7</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="21" t="str">
+        <f>IF(N33="","",$M33)</f>
+        <v/>
+      </c>
+      <c r="W33" s="21" t="str">
+        <f>IF(O33="","",$M33)</f>
+        <v/>
+      </c>
+      <c r="X33" s="21" t="str">
+        <f>IF(P33="","",$M33)</f>
+        <v/>
+      </c>
+      <c r="Y33" s="21" t="str">
+        <f>IF(Q33="","",$M33)</f>
+        <v/>
+      </c>
+      <c r="Z33" s="21" t="str">
+        <f>IF(R33="","",$M33)</f>
+        <v/>
+      </c>
+      <c r="AA33" s="21" t="str">
+        <f>IF(S33="","",$M33)</f>
+        <v/>
+      </c>
+      <c r="AB33" s="21" t="str">
+        <f>IF(T33="","",$M33)</f>
+        <v/>
+      </c>
+      <c r="AC33" s="21" t="str">
+        <f>IF(U33="","",$M33)</f>
+        <v/>
+      </c>
+      <c r="AD33" s="21">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2079,23 +3265,69 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="F34" s="3">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3">
+        <v>6</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M34" s="15">
         <v>8</v>
       </c>
-      <c r="G34" s="3">
-        <v>6</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="21" t="str">
+        <f>IF(N34="","",$M34)</f>
+        <v/>
+      </c>
+      <c r="W34" s="21" t="str">
+        <f>IF(O34="","",$M34)</f>
+        <v/>
+      </c>
+      <c r="X34" s="21" t="str">
+        <f>IF(P34="","",$M34)</f>
+        <v/>
+      </c>
+      <c r="Y34" s="21" t="str">
+        <f>IF(Q34="","",$M34)</f>
+        <v/>
+      </c>
+      <c r="Z34" s="21" t="str">
+        <f>IF(R34="","",$M34)</f>
+        <v/>
+      </c>
+      <c r="AA34" s="21" t="str">
+        <f>IF(S34="","",$M34)</f>
+        <v/>
+      </c>
+      <c r="AB34" s="21" t="str">
+        <f>IF(T34="","",$M34)</f>
+        <v/>
+      </c>
+      <c r="AC34" s="21" t="str">
+        <f>IF(U34="","",$M34)</f>
+        <v/>
+      </c>
+      <c r="AD34" s="21">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2106,10 +3338,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E35" s="2">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F35" s="2">
         <v>4</v>
@@ -2117,14 +3349,60 @@
       <c r="G35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="4">
-        <v>1600</v>
-      </c>
-      <c r="K35" s="4">
+      <c r="J35" s="2">
+        <v>800</v>
+      </c>
+      <c r="K35" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="M35" s="15">
+        <v>8</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="2" t="str">
+        <f>IF(N35="","",$M35)</f>
+        <v/>
+      </c>
+      <c r="W35" s="2" t="str">
+        <f t="shared" ref="W35:AC35" si="0">IF(O35="","",$M35)</f>
+        <v/>
+      </c>
+      <c r="X35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD35" s="2">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2135,25 +3413,71 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E36" s="2">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="F36" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
       </c>
-      <c r="J36" s="4">
-        <v>3600</v>
-      </c>
-      <c r="K36" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="J36" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K36" s="2">
+        <v>240</v>
+      </c>
+      <c r="M36" s="15">
+        <v>8</v>
+      </c>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="2" t="str">
+        <f>IF(N36="","",$M36)</f>
+        <v/>
+      </c>
+      <c r="W36" s="2" t="str">
+        <f t="shared" ref="W36:AC36" si="1">IF(O36="","",$M36)</f>
+        <v/>
+      </c>
+      <c r="X36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD36" s="2">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2164,22 +3488,68 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E37" s="2">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="F37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
       </c>
-      <c r="J37" s="4">
-        <v>8000</v>
-      </c>
-      <c r="K37" s="4">
-        <v>800</v>
+      <c r="J37" s="2">
+        <v>2400</v>
+      </c>
+      <c r="K37" s="2">
+        <v>500</v>
+      </c>
+      <c r="M37" s="16">
+        <v>8</v>
+      </c>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="2" t="str">
+        <f>IF(N37="","",$M37)</f>
+        <v/>
+      </c>
+      <c r="W37" s="2" t="str">
+        <f t="shared" ref="W37:AC37" si="2">IF(O37="","",$M37)</f>
+        <v/>
+      </c>
+      <c r="X37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD37" s="2">
+        <v>250000</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2193,22 +3563,22 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="F38" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38" s="2">
         <v>4</v>
       </c>
-      <c r="J38" s="4">
-        <v>16000</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1600</v>
+      <c r="J38" s="2">
+        <v>5000</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2222,20 +3592,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E39" s="2">
-        <v>125000</v>
+        <v>48000</v>
       </c>
       <c r="F39" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39" s="2">
         <v>5</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="4">
-        <v>5000</v>
+      <c r="J39" s="2">
+        <v>12000</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2400</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2249,20 +3621,19 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2">
-        <v>250000</v>
+        <v>95000</v>
       </c>
       <c r="F40" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="4">
-        <v>20000</v>
+      <c r="K40" s="2">
+        <v>7500</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2276,10 +3647,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E41" s="3">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
@@ -2287,10 +3658,10 @@
       <c r="G41" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="4">
-        <v>5000</v>
-      </c>
-      <c r="K41" s="4">
+      <c r="J41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
     </row>
@@ -2305,22 +3676,22 @@
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E42" s="3">
-        <v>48000</v>
+        <v>18000</v>
       </c>
       <c r="F42" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42" s="3">
         <v>2</v>
       </c>
-      <c r="J42" s="4">
-        <v>12000</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1200</v>
+      <c r="J42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K42" s="3">
+        <v>750</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2334,20 +3705,22 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E43" s="3">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="F43" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="4">
-        <v>2400</v>
+      <c r="J43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2361,20 +3734,22 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E44" s="3">
-        <v>125000</v>
+        <v>48000</v>
       </c>
       <c r="F44" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="4">
-        <v>5000</v>
+      <c r="J44" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2400</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2388,20 +3763,20 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E45" s="3">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="F45" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="3">
         <v>5</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="4">
-        <v>12000</v>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
+        <v>5000</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2415,20 +3790,20 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E46" s="3">
-        <v>250000</v>
+        <v>125000</v>
       </c>
       <c r="F46" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" s="3">
         <v>6</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="4">
-        <v>20000</v>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
+        <v>10000</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2442,20 +3817,22 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E47" s="2">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="F47" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="4">
-        <v>2400</v>
+      <c r="J47" s="2">
+        <v>8000</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1600</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2469,20 +3846,22 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E48" s="2">
-        <v>95000</v>
+        <v>48000</v>
       </c>
       <c r="F48" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="4">
-        <v>3600</v>
+      <c r="J48" s="2">
+        <v>12000</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2400</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2496,20 +3875,22 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E49" s="2">
-        <v>125000</v>
+        <v>65000</v>
       </c>
       <c r="F49" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G49" s="2">
         <v>3</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="4">
-        <v>5000</v>
+      <c r="J49" s="2">
+        <v>16000</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3200</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2523,20 +3904,19 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E50" s="2">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="F50" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" s="2">
         <v>4</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="4">
-        <v>8000</v>
+      <c r="K50" s="2">
+        <v>5000</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2550,20 +3930,19 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E51" s="2">
-        <v>180000</v>
+        <v>95000</v>
       </c>
       <c r="F51" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="2">
         <v>5</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="4">
-        <v>12000</v>
+      <c r="K51" s="2">
+        <v>7500</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2577,10 +3956,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E52" s="2">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="F52" s="2">
         <v>8</v>
@@ -2588,12 +3967,14 @@
       <c r="G52" s="2">
         <v>6</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="4">
-        <v>20000</v>
+      <c r="K52" s="2">
+        <v>16000</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="U13:AD37">
+    <sortCondition ref="U13"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>序号</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>1003|3500;1004|7500</t>
-  </si>
-  <si>
-    <t>1001|1800;1004|7500</t>
   </si>
   <si>
     <t>1003|2500;1004|1000</t>
@@ -1265,7 +1262,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3676,7 +3673,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E42" s="3">
         <v>18000</v>
@@ -3705,7 +3702,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="3">
         <v>25000</v>
@@ -3790,7 +3787,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="3">
         <v>125000</v>
@@ -3817,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E47" s="2">
         <v>35000</v>
@@ -3875,7 +3872,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2">
         <v>65000</v>
@@ -3930,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E51" s="2">
         <v>95000</v>
@@ -3956,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="2">
         <v>150000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$R$13:$T$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -156,7 +156,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +170,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -324,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,12 +337,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -536,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -557,47 +543,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.5"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -704,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,137 +661,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,60 +800,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1257,12 +1148,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1590,7 +1481,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1615,70 +1506,8 @@
       <c r="J13" s="2">
         <v>120</v>
       </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>1</v>
-      </c>
-      <c r="R13" s="19">
-        <v>1</v>
-      </c>
-      <c r="S13" s="20">
-        <v>1</v>
-      </c>
-      <c r="T13" s="19">
-        <v>1</v>
-      </c>
-      <c r="U13" s="18">
-        <v>1</v>
-      </c>
-      <c r="V13" s="21">
-        <f>IF(N13="","",$M13)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="21">
-        <f>IF(O13="","",$M13)</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="21">
-        <f>IF(P13="","",$M13)</f>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="21">
-        <f>IF(Q13="","",$M13)</f>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="21">
-        <f>IF(R13="","",$M13)</f>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="21">
-        <f>IF(S13="","",$M13)</f>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="21">
-        <f>IF(T13="","",$M13)</f>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="21">
-        <f>IF(U13="","",$M13)</f>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="21">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1706,70 +1535,8 @@
       <c r="K14" s="2">
         <v>50</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-      <c r="O14" s="9">
-        <v>2</v>
-      </c>
-      <c r="P14" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>2</v>
-      </c>
-      <c r="R14" s="9">
-        <v>2</v>
-      </c>
-      <c r="S14" s="10">
-        <v>2</v>
-      </c>
-      <c r="T14" s="14">
-        <v>2</v>
-      </c>
-      <c r="U14" s="12">
-        <v>2</v>
-      </c>
-      <c r="V14" s="21">
-        <f>IF(N14="","",$M14)</f>
-        <v>1</v>
-      </c>
-      <c r="W14" s="21">
-        <f>IF(O14="","",$M14)</f>
-        <v>1</v>
-      </c>
-      <c r="X14" s="21">
-        <f>IF(P14="","",$M14)</f>
-        <v>1</v>
-      </c>
-      <c r="Y14" s="21">
-        <f>IF(Q14="","",$M14)</f>
-        <v>1</v>
-      </c>
-      <c r="Z14" s="21">
-        <f>IF(R14="","",$M14)</f>
-        <v>1</v>
-      </c>
-      <c r="AA14" s="21">
-        <f>IF(S14="","",$M14)</f>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="21">
-        <f>IF(T14="","",$M14)</f>
-        <v>1</v>
-      </c>
-      <c r="AC14" s="21">
-        <f>IF(U14="","",$M14)</f>
-        <v>1</v>
-      </c>
-      <c r="AD14" s="21">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1797,70 +1564,8 @@
       <c r="K15" s="2">
         <v>160</v>
       </c>
-      <c r="M15" s="11">
-        <v>1</v>
-      </c>
-      <c r="N15" s="12">
-        <v>3</v>
-      </c>
-      <c r="O15" s="10">
-        <v>3</v>
-      </c>
-      <c r="P15" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>3</v>
-      </c>
-      <c r="R15" s="10">
-        <v>3</v>
-      </c>
-      <c r="S15" s="8">
-        <v>3</v>
-      </c>
-      <c r="T15" s="9">
-        <v>3</v>
-      </c>
-      <c r="U15" s="10">
-        <v>3</v>
-      </c>
-      <c r="V15" s="21">
-        <f>IF(N15="","",$M15)</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="21">
-        <f>IF(O15="","",$M15)</f>
-        <v>1</v>
-      </c>
-      <c r="X15" s="21">
-        <f>IF(P15="","",$M15)</f>
-        <v>1</v>
-      </c>
-      <c r="Y15" s="21">
-        <f>IF(Q15="","",$M15)</f>
-        <v>1</v>
-      </c>
-      <c r="Z15" s="21">
-        <f>IF(R15="","",$M15)</f>
-        <v>1</v>
-      </c>
-      <c r="AA15" s="21">
-        <f>IF(S15="","",$M15)</f>
-        <v>1</v>
-      </c>
-      <c r="AB15" s="21">
-        <f>IF(T15="","",$M15)</f>
-        <v>1</v>
-      </c>
-      <c r="AC15" s="21">
-        <f>IF(U15="","",$M15)</f>
-        <v>1</v>
-      </c>
-      <c r="AD15" s="21">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1888,70 +1593,8 @@
       <c r="K16" s="2">
         <v>750</v>
       </c>
-      <c r="M16" s="13">
-        <v>2</v>
-      </c>
-      <c r="N16" s="10">
-        <v>4</v>
-      </c>
-      <c r="O16" s="8">
-        <v>4</v>
-      </c>
-      <c r="P16" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>4</v>
-      </c>
-      <c r="R16" s="8">
-        <v>4</v>
-      </c>
-      <c r="S16" s="9">
-        <v>4</v>
-      </c>
-      <c r="T16" s="12">
-        <v>4</v>
-      </c>
-      <c r="U16" s="8">
-        <v>4</v>
-      </c>
-      <c r="V16" s="21">
-        <f>IF(N16="","",$M16)</f>
-        <v>2</v>
-      </c>
-      <c r="W16" s="21">
-        <f>IF(O16="","",$M16)</f>
-        <v>2</v>
-      </c>
-      <c r="X16" s="21">
-        <f>IF(P16="","",$M16)</f>
-        <v>2</v>
-      </c>
-      <c r="Y16" s="21">
-        <f>IF(Q16="","",$M16)</f>
-        <v>2</v>
-      </c>
-      <c r="Z16" s="21">
-        <f>IF(R16="","",$M16)</f>
-        <v>2</v>
-      </c>
-      <c r="AA16" s="21">
-        <f>IF(S16="","",$M16)</f>
-        <v>2</v>
-      </c>
-      <c r="AB16" s="21">
-        <f>IF(T16="","",$M16)</f>
-        <v>2</v>
-      </c>
-      <c r="AC16" s="21">
-        <f>IF(U16="","",$M16)</f>
-        <v>2</v>
-      </c>
-      <c r="AD16" s="21">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1977,70 +1620,8 @@
         <v>50</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="M17" s="13">
-        <v>2</v>
-      </c>
-      <c r="N17" s="9">
-        <v>5</v>
-      </c>
-      <c r="O17" s="12">
-        <v>5</v>
-      </c>
-      <c r="P17" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>5</v>
-      </c>
-      <c r="R17" s="10">
-        <v>5</v>
-      </c>
-      <c r="S17" s="12">
-        <v>5</v>
-      </c>
-      <c r="T17" s="8">
-        <v>5</v>
-      </c>
-      <c r="U17" s="9">
-        <v>5</v>
-      </c>
-      <c r="V17" s="21">
-        <f>IF(N17="","",$M17)</f>
-        <v>2</v>
-      </c>
-      <c r="W17" s="21">
-        <f>IF(O17="","",$M17)</f>
-        <v>2</v>
-      </c>
-      <c r="X17" s="21">
-        <f>IF(P17="","",$M17)</f>
-        <v>2</v>
-      </c>
-      <c r="Y17" s="21">
-        <f>IF(Q17="","",$M17)</f>
-        <v>2</v>
-      </c>
-      <c r="Z17" s="21">
-        <f>IF(R17="","",$M17)</f>
-        <v>2</v>
-      </c>
-      <c r="AA17" s="21">
-        <f>IF(S17="","",$M17)</f>
-        <v>2</v>
-      </c>
-      <c r="AB17" s="21">
-        <f>IF(T17="","",$M17)</f>
-        <v>2</v>
-      </c>
-      <c r="AC17" s="21">
-        <f>IF(U17="","",$M17)</f>
-        <v>2</v>
-      </c>
-      <c r="AD17" s="21">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2066,70 +1647,8 @@
         <v>120</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="M18" s="13">
-        <v>2</v>
-      </c>
-      <c r="N18" s="8">
-        <v>6</v>
-      </c>
-      <c r="O18" s="14">
-        <v>6</v>
-      </c>
-      <c r="P18" s="10">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>6</v>
-      </c>
-      <c r="R18" s="8">
-        <v>6</v>
-      </c>
-      <c r="S18" s="9">
-        <v>6</v>
-      </c>
-      <c r="T18" s="9">
-        <v>6</v>
-      </c>
-      <c r="U18" s="10">
-        <v>6</v>
-      </c>
-      <c r="V18" s="21">
-        <f>IF(N18="","",$M18)</f>
-        <v>2</v>
-      </c>
-      <c r="W18" s="21">
-        <f>IF(O18="","",$M18)</f>
-        <v>2</v>
-      </c>
-      <c r="X18" s="21">
-        <f>IF(P18="","",$M18)</f>
-        <v>2</v>
-      </c>
-      <c r="Y18" s="21">
-        <f>IF(Q18="","",$M18)</f>
-        <v>2</v>
-      </c>
-      <c r="Z18" s="21">
-        <f>IF(R18="","",$M18)</f>
-        <v>2</v>
-      </c>
-      <c r="AA18" s="21">
-        <f>IF(S18="","",$M18)</f>
-        <v>2</v>
-      </c>
-      <c r="AB18" s="21">
-        <f>IF(T18="","",$M18)</f>
-        <v>2</v>
-      </c>
-      <c r="AC18" s="21">
-        <f>IF(U18="","",$M18)</f>
-        <v>2</v>
-      </c>
-      <c r="AD18" s="21">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2157,54 +1676,8 @@
       <c r="K19" s="3">
         <v>50</v>
       </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="21" t="str">
-        <f>IF(N19="","",$M19)</f>
-        <v/>
-      </c>
-      <c r="W19" s="21" t="str">
-        <f>IF(O19="","",$M19)</f>
-        <v/>
-      </c>
-      <c r="X19" s="21" t="str">
-        <f>IF(P19="","",$M19)</f>
-        <v/>
-      </c>
-      <c r="Y19" s="21" t="str">
-        <f>IF(Q19="","",$M19)</f>
-        <v/>
-      </c>
-      <c r="Z19" s="21" t="str">
-        <f>IF(R19="","",$M19)</f>
-        <v/>
-      </c>
-      <c r="AA19" s="21" t="str">
-        <f>IF(S19="","",$M19)</f>
-        <v/>
-      </c>
-      <c r="AB19" s="21" t="str">
-        <f>IF(T19="","",$M19)</f>
-        <v/>
-      </c>
-      <c r="AC19" s="21" t="str">
-        <f>IF(U19="","",$M19)</f>
-        <v/>
-      </c>
-      <c r="AD19" s="21">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2232,54 +1705,8 @@
       <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="21" t="str">
-        <f>IF(N20="","",$M20)</f>
-        <v/>
-      </c>
-      <c r="W20" s="21" t="str">
-        <f>IF(O20="","",$M20)</f>
-        <v/>
-      </c>
-      <c r="X20" s="21" t="str">
-        <f>IF(P20="","",$M20)</f>
-        <v/>
-      </c>
-      <c r="Y20" s="21" t="str">
-        <f>IF(Q20="","",$M20)</f>
-        <v/>
-      </c>
-      <c r="Z20" s="21" t="str">
-        <f>IF(R20="","",$M20)</f>
-        <v/>
-      </c>
-      <c r="AA20" s="21" t="str">
-        <f>IF(S20="","",$M20)</f>
-        <v/>
-      </c>
-      <c r="AB20" s="21" t="str">
-        <f>IF(T20="","",$M20)</f>
-        <v/>
-      </c>
-      <c r="AC20" s="21" t="str">
-        <f>IF(U20="","",$M20)</f>
-        <v/>
-      </c>
-      <c r="AD20" s="21">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2307,54 +1734,8 @@
       <c r="K21" s="3">
         <v>320</v>
       </c>
-      <c r="M21" s="7">
-        <v>3</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="21" t="str">
-        <f>IF(N21="","",$M21)</f>
-        <v/>
-      </c>
-      <c r="W21" s="21" t="str">
-        <f>IF(O21="","",$M21)</f>
-        <v/>
-      </c>
-      <c r="X21" s="21" t="str">
-        <f>IF(P21="","",$M21)</f>
-        <v/>
-      </c>
-      <c r="Y21" s="21" t="str">
-        <f>IF(Q21="","",$M21)</f>
-        <v/>
-      </c>
-      <c r="Z21" s="21" t="str">
-        <f>IF(R21="","",$M21)</f>
-        <v/>
-      </c>
-      <c r="AA21" s="21" t="str">
-        <f>IF(S21="","",$M21)</f>
-        <v/>
-      </c>
-      <c r="AB21" s="21" t="str">
-        <f>IF(T21="","",$M21)</f>
-        <v/>
-      </c>
-      <c r="AC21" s="21" t="str">
-        <f>IF(U21="","",$M21)</f>
-        <v/>
-      </c>
-      <c r="AD21" s="21">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2382,54 +1763,8 @@
       <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="13">
-        <v>4</v>
-      </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="21" t="str">
-        <f>IF(N22="","",$M22)</f>
-        <v/>
-      </c>
-      <c r="W22" s="21" t="str">
-        <f>IF(O22="","",$M22)</f>
-        <v/>
-      </c>
-      <c r="X22" s="21" t="str">
-        <f>IF(P22="","",$M22)</f>
-        <v/>
-      </c>
-      <c r="Y22" s="21" t="str">
-        <f>IF(Q22="","",$M22)</f>
-        <v/>
-      </c>
-      <c r="Z22" s="21" t="str">
-        <f>IF(R22="","",$M22)</f>
-        <v/>
-      </c>
-      <c r="AA22" s="21" t="str">
-        <f>IF(S22="","",$M22)</f>
-        <v/>
-      </c>
-      <c r="AB22" s="21" t="str">
-        <f>IF(T22="","",$M22)</f>
-        <v/>
-      </c>
-      <c r="AC22" s="21" t="str">
-        <f>IF(U22="","",$M22)</f>
-        <v/>
-      </c>
-      <c r="AD22" s="21">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2454,54 +1789,8 @@
       <c r="J23" s="2">
         <v>120</v>
       </c>
-      <c r="M23" s="13">
-        <v>4</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="21" t="str">
-        <f>IF(N23="","",$M23)</f>
-        <v/>
-      </c>
-      <c r="W23" s="21" t="str">
-        <f>IF(O23="","",$M23)</f>
-        <v/>
-      </c>
-      <c r="X23" s="21" t="str">
-        <f>IF(P23="","",$M23)</f>
-        <v/>
-      </c>
-      <c r="Y23" s="21" t="str">
-        <f>IF(Q23="","",$M23)</f>
-        <v/>
-      </c>
-      <c r="Z23" s="21" t="str">
-        <f>IF(R23="","",$M23)</f>
-        <v/>
-      </c>
-      <c r="AA23" s="21" t="str">
-        <f>IF(S23="","",$M23)</f>
-        <v/>
-      </c>
-      <c r="AB23" s="21" t="str">
-        <f>IF(T23="","",$M23)</f>
-        <v/>
-      </c>
-      <c r="AC23" s="21" t="str">
-        <f>IF(U23="","",$M23)</f>
-        <v/>
-      </c>
-      <c r="AD23" s="21">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2529,54 +1818,8 @@
       <c r="K24" s="2">
         <v>50</v>
       </c>
-      <c r="M24" s="13">
-        <v>4</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="21" t="str">
-        <f>IF(N24="","",$M24)</f>
-        <v/>
-      </c>
-      <c r="W24" s="21" t="str">
-        <f>IF(O24="","",$M24)</f>
-        <v/>
-      </c>
-      <c r="X24" s="21" t="str">
-        <f>IF(P24="","",$M24)</f>
-        <v/>
-      </c>
-      <c r="Y24" s="21" t="str">
-        <f>IF(Q24="","",$M24)</f>
-        <v/>
-      </c>
-      <c r="Z24" s="21" t="str">
-        <f>IF(R24="","",$M24)</f>
-        <v/>
-      </c>
-      <c r="AA24" s="21" t="str">
-        <f>IF(S24="","",$M24)</f>
-        <v/>
-      </c>
-      <c r="AB24" s="21" t="str">
-        <f>IF(T24="","",$M24)</f>
-        <v/>
-      </c>
-      <c r="AC24" s="21" t="str">
-        <f>IF(U24="","",$M24)</f>
-        <v/>
-      </c>
-      <c r="AD24" s="21">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2604,54 +1847,8 @@
       <c r="K25" s="2">
         <v>100</v>
       </c>
-      <c r="M25" s="7">
-        <v>5</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="21" t="str">
-        <f>IF(N25="","",$M25)</f>
-        <v/>
-      </c>
-      <c r="W25" s="21" t="str">
-        <f>IF(O25="","",$M25)</f>
-        <v/>
-      </c>
-      <c r="X25" s="21" t="str">
-        <f>IF(P25="","",$M25)</f>
-        <v/>
-      </c>
-      <c r="Y25" s="21" t="str">
-        <f>IF(Q25="","",$M25)</f>
-        <v/>
-      </c>
-      <c r="Z25" s="21" t="str">
-        <f>IF(R25="","",$M25)</f>
-        <v/>
-      </c>
-      <c r="AA25" s="21" t="str">
-        <f>IF(S25="","",$M25)</f>
-        <v/>
-      </c>
-      <c r="AB25" s="21" t="str">
-        <f>IF(T25="","",$M25)</f>
-        <v/>
-      </c>
-      <c r="AC25" s="21" t="str">
-        <f>IF(U25="","",$M25)</f>
-        <v/>
-      </c>
-      <c r="AD25" s="21">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2679,54 +1876,8 @@
       <c r="K26" s="2">
         <v>240</v>
       </c>
-      <c r="M26" s="7">
-        <v>5</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="21" t="str">
-        <f>IF(N26="","",$M26)</f>
-        <v/>
-      </c>
-      <c r="W26" s="21" t="str">
-        <f>IF(O26="","",$M26)</f>
-        <v/>
-      </c>
-      <c r="X26" s="21" t="str">
-        <f>IF(P26="","",$M26)</f>
-        <v/>
-      </c>
-      <c r="Y26" s="21" t="str">
-        <f>IF(Q26="","",$M26)</f>
-        <v/>
-      </c>
-      <c r="Z26" s="21" t="str">
-        <f>IF(R26="","",$M26)</f>
-        <v/>
-      </c>
-      <c r="AA26" s="21" t="str">
-        <f>IF(S26="","",$M26)</f>
-        <v/>
-      </c>
-      <c r="AB26" s="21" t="str">
-        <f>IF(T26="","",$M26)</f>
-        <v/>
-      </c>
-      <c r="AC26" s="21" t="str">
-        <f>IF(U26="","",$M26)</f>
-        <v/>
-      </c>
-      <c r="AD26" s="21">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2754,54 +1905,8 @@
       <c r="K27" s="2">
         <v>750</v>
       </c>
-      <c r="M27" s="7">
-        <v>5</v>
-      </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="21" t="str">
-        <f>IF(N27="","",$M27)</f>
-        <v/>
-      </c>
-      <c r="W27" s="21" t="str">
-        <f>IF(O27="","",$M27)</f>
-        <v/>
-      </c>
-      <c r="X27" s="21" t="str">
-        <f>IF(P27="","",$M27)</f>
-        <v/>
-      </c>
-      <c r="Y27" s="21" t="str">
-        <f>IF(Q27="","",$M27)</f>
-        <v/>
-      </c>
-      <c r="Z27" s="21" t="str">
-        <f>IF(R27="","",$M27)</f>
-        <v/>
-      </c>
-      <c r="AA27" s="21" t="str">
-        <f>IF(S27="","",$M27)</f>
-        <v/>
-      </c>
-      <c r="AB27" s="21" t="str">
-        <f>IF(T27="","",$M27)</f>
-        <v/>
-      </c>
-      <c r="AC27" s="21" t="str">
-        <f>IF(U27="","",$M27)</f>
-        <v/>
-      </c>
-      <c r="AD27" s="21">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2829,54 +1934,8 @@
       <c r="K28" s="2">
         <v>2400</v>
       </c>
-      <c r="M28" s="15">
-        <v>6</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="21" t="str">
-        <f>IF(N28="","",$M28)</f>
-        <v/>
-      </c>
-      <c r="W28" s="21" t="str">
-        <f>IF(O28="","",$M28)</f>
-        <v/>
-      </c>
-      <c r="X28" s="21" t="str">
-        <f>IF(P28="","",$M28)</f>
-        <v/>
-      </c>
-      <c r="Y28" s="21" t="str">
-        <f>IF(Q28="","",$M28)</f>
-        <v/>
-      </c>
-      <c r="Z28" s="21" t="str">
-        <f>IF(R28="","",$M28)</f>
-        <v/>
-      </c>
-      <c r="AA28" s="21" t="str">
-        <f>IF(S28="","",$M28)</f>
-        <v/>
-      </c>
-      <c r="AB28" s="21" t="str">
-        <f>IF(T28="","",$M28)</f>
-        <v/>
-      </c>
-      <c r="AC28" s="21" t="str">
-        <f>IF(U28="","",$M28)</f>
-        <v/>
-      </c>
-      <c r="AD28" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2904,54 +1963,8 @@
       <c r="K29" s="3">
         <v>50</v>
       </c>
-      <c r="M29" s="13">
-        <v>6</v>
-      </c>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="21" t="str">
-        <f>IF(N29="","",$M29)</f>
-        <v/>
-      </c>
-      <c r="W29" s="21" t="str">
-        <f>IF(O29="","",$M29)</f>
-        <v/>
-      </c>
-      <c r="X29" s="21" t="str">
-        <f>IF(P29="","",$M29)</f>
-        <v/>
-      </c>
-      <c r="Y29" s="21" t="str">
-        <f>IF(Q29="","",$M29)</f>
-        <v/>
-      </c>
-      <c r="Z29" s="21" t="str">
-        <f>IF(R29="","",$M29)</f>
-        <v/>
-      </c>
-      <c r="AA29" s="21" t="str">
-        <f>IF(S29="","",$M29)</f>
-        <v/>
-      </c>
-      <c r="AB29" s="21" t="str">
-        <f>IF(T29="","",$M29)</f>
-        <v/>
-      </c>
-      <c r="AC29" s="21" t="str">
-        <f>IF(U29="","",$M29)</f>
-        <v/>
-      </c>
-      <c r="AD29" s="21">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2979,54 +1992,8 @@
       <c r="K30" s="3">
         <v>100</v>
       </c>
-      <c r="M30" s="15">
-        <v>6</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="21" t="str">
-        <f>IF(N30="","",$M30)</f>
-        <v/>
-      </c>
-      <c r="W30" s="21" t="str">
-        <f>IF(O30="","",$M30)</f>
-        <v/>
-      </c>
-      <c r="X30" s="21" t="str">
-        <f>IF(P30="","",$M30)</f>
-        <v/>
-      </c>
-      <c r="Y30" s="21" t="str">
-        <f>IF(Q30="","",$M30)</f>
-        <v/>
-      </c>
-      <c r="Z30" s="21" t="str">
-        <f>IF(R30="","",$M30)</f>
-        <v/>
-      </c>
-      <c r="AA30" s="21" t="str">
-        <f>IF(S30="","",$M30)</f>
-        <v/>
-      </c>
-      <c r="AB30" s="21" t="str">
-        <f>IF(T30="","",$M30)</f>
-        <v/>
-      </c>
-      <c r="AC30" s="21" t="str">
-        <f>IF(U30="","",$M30)</f>
-        <v/>
-      </c>
-      <c r="AD30" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -3054,54 +2021,8 @@
       <c r="K31" s="3">
         <v>240</v>
       </c>
-      <c r="M31" s="7">
-        <v>7</v>
-      </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="21" t="str">
-        <f>IF(N31="","",$M31)</f>
-        <v/>
-      </c>
-      <c r="W31" s="21" t="str">
-        <f>IF(O31="","",$M31)</f>
-        <v/>
-      </c>
-      <c r="X31" s="21" t="str">
-        <f>IF(P31="","",$M31)</f>
-        <v/>
-      </c>
-      <c r="Y31" s="21" t="str">
-        <f>IF(Q31="","",$M31)</f>
-        <v/>
-      </c>
-      <c r="Z31" s="21" t="str">
-        <f>IF(R31="","",$M31)</f>
-        <v/>
-      </c>
-      <c r="AA31" s="21" t="str">
-        <f>IF(S31="","",$M31)</f>
-        <v/>
-      </c>
-      <c r="AB31" s="21" t="str">
-        <f>IF(T31="","",$M31)</f>
-        <v/>
-      </c>
-      <c r="AC31" s="21" t="str">
-        <f>IF(U31="","",$M31)</f>
-        <v/>
-      </c>
-      <c r="AD31" s="21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -3129,54 +2050,8 @@
       <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="7">
-        <v>7</v>
-      </c>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="21" t="str">
-        <f>IF(N32="","",$M32)</f>
-        <v/>
-      </c>
-      <c r="W32" s="21" t="str">
-        <f>IF(O32="","",$M32)</f>
-        <v/>
-      </c>
-      <c r="X32" s="21" t="str">
-        <f>IF(P32="","",$M32)</f>
-        <v/>
-      </c>
-      <c r="Y32" s="21" t="str">
-        <f>IF(Q32="","",$M32)</f>
-        <v/>
-      </c>
-      <c r="Z32" s="21" t="str">
-        <f>IF(R32="","",$M32)</f>
-        <v/>
-      </c>
-      <c r="AA32" s="21" t="str">
-        <f>IF(S32="","",$M32)</f>
-        <v/>
-      </c>
-      <c r="AB32" s="21" t="str">
-        <f>IF(T32="","",$M32)</f>
-        <v/>
-      </c>
-      <c r="AC32" s="21" t="str">
-        <f>IF(U32="","",$M32)</f>
-        <v/>
-      </c>
-      <c r="AD32" s="21">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -3204,54 +2079,8 @@
       <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="7">
-        <v>7</v>
-      </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="21" t="str">
-        <f>IF(N33="","",$M33)</f>
-        <v/>
-      </c>
-      <c r="W33" s="21" t="str">
-        <f>IF(O33="","",$M33)</f>
-        <v/>
-      </c>
-      <c r="X33" s="21" t="str">
-        <f>IF(P33="","",$M33)</f>
-        <v/>
-      </c>
-      <c r="Y33" s="21" t="str">
-        <f>IF(Q33="","",$M33)</f>
-        <v/>
-      </c>
-      <c r="Z33" s="21" t="str">
-        <f>IF(R33="","",$M33)</f>
-        <v/>
-      </c>
-      <c r="AA33" s="21" t="str">
-        <f>IF(S33="","",$M33)</f>
-        <v/>
-      </c>
-      <c r="AB33" s="21" t="str">
-        <f>IF(T33="","",$M33)</f>
-        <v/>
-      </c>
-      <c r="AC33" s="21" t="str">
-        <f>IF(U33="","",$M33)</f>
-        <v/>
-      </c>
-      <c r="AD33" s="21">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -3277,54 +2106,8 @@
       <c r="K34" s="3">
         <v>5000</v>
       </c>
-      <c r="M34" s="15">
-        <v>8</v>
-      </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="21" t="str">
-        <f>IF(N34="","",$M34)</f>
-        <v/>
-      </c>
-      <c r="W34" s="21" t="str">
-        <f>IF(O34="","",$M34)</f>
-        <v/>
-      </c>
-      <c r="X34" s="21" t="str">
-        <f>IF(P34="","",$M34)</f>
-        <v/>
-      </c>
-      <c r="Y34" s="21" t="str">
-        <f>IF(Q34="","",$M34)</f>
-        <v/>
-      </c>
-      <c r="Z34" s="21" t="str">
-        <f>IF(R34="","",$M34)</f>
-        <v/>
-      </c>
-      <c r="AA34" s="21" t="str">
-        <f>IF(S34="","",$M34)</f>
-        <v/>
-      </c>
-      <c r="AB34" s="21" t="str">
-        <f>IF(T34="","",$M34)</f>
-        <v/>
-      </c>
-      <c r="AC34" s="21" t="str">
-        <f>IF(U34="","",$M34)</f>
-        <v/>
-      </c>
-      <c r="AD34" s="21">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -3352,54 +2135,8 @@
       <c r="K35" s="2">
         <v>160</v>
       </c>
-      <c r="M35" s="15">
-        <v>8</v>
-      </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="2" t="str">
-        <f>IF(N35="","",$M35)</f>
-        <v/>
-      </c>
-      <c r="W35" s="2" t="str">
-        <f t="shared" ref="W35:AC35" si="0">IF(O35="","",$M35)</f>
-        <v/>
-      </c>
-      <c r="X35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD35" s="2">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -3427,54 +2164,8 @@
       <c r="K36" s="2">
         <v>240</v>
       </c>
-      <c r="M36" s="15">
-        <v>8</v>
-      </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="2" t="str">
-        <f>IF(N36="","",$M36)</f>
-        <v/>
-      </c>
-      <c r="W36" s="2" t="str">
-        <f t="shared" ref="W36:AC36" si="1">IF(O36="","",$M36)</f>
-        <v/>
-      </c>
-      <c r="X36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AB36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AC36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AD36" s="2">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -3501,52 +2192,6 @@
       </c>
       <c r="K37" s="2">
         <v>500</v>
-      </c>
-      <c r="M37" s="16">
-        <v>8</v>
-      </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="2" t="str">
-        <f>IF(N37="","",$M37)</f>
-        <v/>
-      </c>
-      <c r="W37" s="2" t="str">
-        <f t="shared" ref="W37:AC37" si="2">IF(O37="","",$M37)</f>
-        <v/>
-      </c>
-      <c r="X37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Y37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Z37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD37" s="2">
-        <v>250000</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3969,9 +2614,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="U13:AD37">
-    <sortCondition ref="U13"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -77,73 +77,100 @@
     <t>主木</t>
   </si>
   <si>
-    <t>1001|10;1002|20</t>
-  </si>
-  <si>
-    <t>1001|40;1002|80</t>
-  </si>
-  <si>
-    <t>1001|80;1002|160</t>
-  </si>
-  <si>
-    <t>1001|250;1004|100</t>
-  </si>
-  <si>
-    <t>1001|1200;1004|500</t>
-  </si>
-  <si>
-    <t>1001|25;1002|50</t>
-  </si>
-  <si>
-    <t>1001|60;1002|120</t>
-  </si>
-  <si>
-    <t>1001|120;1004|50</t>
-  </si>
-  <si>
-    <t>1001|400;1004|160</t>
-  </si>
-  <si>
-    <t>1001|1800;1004|750</t>
-  </si>
-  <si>
-    <t>1001|800;1004|320</t>
-  </si>
-  <si>
-    <t>1001|4000;1004|1600</t>
-  </si>
-  <si>
-    <t>1001|600;1004|240</t>
-  </si>
-  <si>
-    <t>1001|6000;1004|2400</t>
-  </si>
-  <si>
-    <t>1003|2500;1004|5000</t>
-  </si>
-  <si>
-    <t>1001|2500;1004|1000</t>
-  </si>
-  <si>
-    <t>1003|6000;1004|2400</t>
-  </si>
-  <si>
-    <t>1003|3500;1004|7500</t>
-  </si>
-  <si>
-    <t>1003|2500;1004|1000</t>
-  </si>
-  <si>
-    <t>1003|5000;1004|10000</t>
-  </si>
-  <si>
-    <t>1003|4000;1004|1600</t>
-  </si>
-  <si>
-    <t>1003|8000;1004|3200</t>
-  </si>
-  <si>
-    <t>1003|8000;1004|16000</t>
+    <t>1001|20</t>
+  </si>
+  <si>
+    <t>1002|80</t>
+  </si>
+  <si>
+    <t>1001|160</t>
+  </si>
+  <si>
+    <t>1004|100</t>
+  </si>
+  <si>
+    <t>1003|500</t>
+  </si>
+  <si>
+    <t>1001|50</t>
+  </si>
+  <si>
+    <t>1002|120</t>
+  </si>
+  <si>
+    <t>1003|50</t>
+  </si>
+  <si>
+    <t>1004|160</t>
+  </si>
+  <si>
+    <t>1003|750</t>
+  </si>
+  <si>
+    <t>1002|50</t>
+  </si>
+  <si>
+    <t>1001|120</t>
+  </si>
+  <si>
+    <t>1004|50</t>
+  </si>
+  <si>
+    <t>1003|100</t>
+  </si>
+  <si>
+    <t>1004|320</t>
+  </si>
+  <si>
+    <t>1003|1600</t>
+  </si>
+  <si>
+    <t>1003|240</t>
+  </si>
+  <si>
+    <t>1004|750</t>
+  </si>
+  <si>
+    <t>1003|2400</t>
+  </si>
+  <si>
+    <t>1004|240</t>
+  </si>
+  <si>
+    <t>1004|1600</t>
+  </si>
+  <si>
+    <t>1003|5000</t>
+  </si>
+  <si>
+    <t>1004|500</t>
+  </si>
+  <si>
+    <t>1003|1000</t>
+  </si>
+  <si>
+    <t>1004|2400</t>
+  </si>
+  <si>
+    <t>1003|7500</t>
+  </si>
+  <si>
+    <t>1004|1000</t>
+  </si>
+  <si>
+    <t>1004|5000</t>
+  </si>
+  <si>
+    <t>1003|10000</t>
+  </si>
+  <si>
+    <t>1004|3200</t>
+  </si>
+  <si>
+    <t>1004|7500</t>
+  </si>
+  <si>
+    <t>1003|16000</t>
   </si>
 </sst>
 </file>
@@ -152,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,8 +199,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,29 +240,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,16 +268,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,25 +305,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,21 +330,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -302,15 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +364,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,19 +400,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,151 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +569,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,7 +633,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,7 +642,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,31 +670,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1180,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1605,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1632,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3">
         <v>800</v>
@@ -1659,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3">
         <v>1600</v>
@@ -1688,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3">
         <v>3000</v>
@@ -1717,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" s="3">
         <v>8000</v>
@@ -1746,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3">
         <v>35000</v>
@@ -1859,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2">
         <v>5500</v>
@@ -1888,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2">
         <v>18000</v>
@@ -1917,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2">
         <v>48000</v>
@@ -1946,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3">
         <v>1600</v>
@@ -1975,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E30" s="3">
         <v>3000</v>
@@ -2004,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E31" s="3">
         <v>5500</v>
@@ -2062,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3">
         <v>35000</v>
@@ -2091,7 +2118,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E34" s="3">
         <v>80000</v>
@@ -2147,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2">
         <v>5500</v>
@@ -2176,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2">
         <v>12000</v>
@@ -2205,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2">
         <v>25000</v>
@@ -2234,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2">
         <v>48000</v>
@@ -2263,7 +2290,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2">
         <v>95000</v>
@@ -2289,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E41" s="3">
         <v>12000</v>
@@ -2347,7 +2374,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E43" s="3">
         <v>25000</v>
@@ -2376,7 +2403,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E44" s="3">
         <v>48000</v>
@@ -2405,7 +2432,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E45" s="3">
         <v>80000</v>
@@ -2432,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E46" s="3">
         <v>125000</v>
@@ -2488,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2">
         <v>48000</v>
@@ -2517,7 +2544,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E49" s="2">
         <v>65000</v>
@@ -2546,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2">
         <v>80000</v>
@@ -2572,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E51" s="2">
         <v>95000</v>
@@ -2598,7 +2625,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E52" s="2">
         <v>150000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -140,37 +140,40 @@
     <t>1004|1600</t>
   </si>
   <si>
+    <t>1003|4000</t>
+  </si>
+  <si>
+    <t>1004|500</t>
+  </si>
+  <si>
+    <t>1003|1000</t>
+  </si>
+  <si>
+    <t>1004|2400</t>
+  </si>
+  <si>
+    <t>1003|6000</t>
+  </si>
+  <si>
+    <t>1004|1000</t>
+  </si>
+  <si>
+    <t>1004|5000</t>
+  </si>
+  <si>
+    <t>1003|8000</t>
+  </si>
+  <si>
+    <t>1004|3200</t>
+  </si>
+  <si>
     <t>1003|5000</t>
   </si>
   <si>
-    <t>1004|500</t>
-  </si>
-  <si>
-    <t>1003|1000</t>
-  </si>
-  <si>
-    <t>1004|2400</t>
-  </si>
-  <si>
-    <t>1003|7500</t>
-  </si>
-  <si>
-    <t>1004|1000</t>
-  </si>
-  <si>
-    <t>1004|5000</t>
+    <t>1004|7500</t>
   </si>
   <si>
     <t>1003|10000</t>
-  </si>
-  <si>
-    <t>1004|3200</t>
-  </si>
-  <si>
-    <t>1004|7500</t>
-  </si>
-  <si>
-    <t>1003|16000</t>
   </si>
 </sst>
 </file>
@@ -178,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -200,16 +203,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,9 +233,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,83 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +295,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +323,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -364,19 +367,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,102 +541,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -491,60 +548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,17 +576,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,31 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,16 +662,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,9 +1181,9 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2573,7 +2576,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E50" s="2">
         <v>80000</v>
@@ -2599,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2">
         <v>95000</v>
@@ -2625,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E52" s="2">
         <v>150000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -181,9 +181,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -202,11 +202,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,8 +284,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,92 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,21 +345,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -367,187 +367,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,8 +579,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,216 +673,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,9 +1181,9 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>18</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
         <v>80</v>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="3">
         <v>160</v>
@@ -1421,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="3">
         <v>500</v>
@@ -1450,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="3">
         <v>2400</v>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2">
         <v>10</v>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
         <v>50</v>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
         <v>120</v>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2">
         <v>240</v>
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2">
         <v>800</v>
@@ -1615,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2">
         <v>3600</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
         <v>50</v>
@@ -1671,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3">
         <v>120</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
         <v>240</v>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" s="3">
         <v>1600</v>
@@ -1785,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>8000</v>
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="2">
         <v>120</v>
@@ -1840,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="2">
         <v>240</v>
@@ -1869,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2">
         <v>500</v>
@@ -1898,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J26" s="2">
         <v>1200</v>
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J27" s="2">
         <v>3600</v>
@@ -1956,7 +1956,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2">
         <v>12000</v>
@@ -1985,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" s="3">
         <v>240</v>
@@ -2014,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" s="3">
         <v>500</v>
@@ -2043,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3">
         <v>1200</v>
@@ -2072,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J32" s="3">
         <v>2400</v>
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="G33" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J33" s="3">
         <v>8000</v>
@@ -2130,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3">
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="2">
         <v>800</v>
@@ -2186,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" s="2">
         <v>1200</v>
@@ -2215,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2">
         <v>2400</v>
@@ -2244,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J38" s="2">
         <v>5000</v>
@@ -2273,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J39" s="2">
         <v>12000</v>
@@ -2302,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K40" s="2">
         <v>7500</v>
@@ -2328,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" s="3">
         <v>2400</v>
@@ -2357,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" s="3">
         <v>3600</v>
@@ -2386,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43" s="3">
         <v>5000</v>
@@ -2415,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J44" s="3">
         <v>12000</v>
@@ -2444,7 +2444,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3">
@@ -2471,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
@@ -2498,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="G47" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" s="2">
         <v>8000</v>
@@ -2527,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" s="2">
         <v>12000</v>
@@ -2556,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="G49" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J49" s="2">
         <v>16000</v>
@@ -2585,7 +2585,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K50" s="2">
         <v>5000</v>
@@ -2611,7 +2611,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K51" s="2">
         <v>7500</v>
@@ -2637,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="G52" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K52" s="2">
         <v>16000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>序号</t>
   </si>
@@ -80,100 +80,88 @@
     <t>1001|20</t>
   </si>
   <si>
-    <t>1002|80</t>
-  </si>
-  <si>
-    <t>1001|160</t>
+    <t>1002|150</t>
+  </si>
+  <si>
+    <t>1001|400</t>
+  </si>
+  <si>
+    <t>1004|200</t>
+  </si>
+  <si>
+    <t>1003|800</t>
+  </si>
+  <si>
+    <t>1001|10</t>
+  </si>
+  <si>
+    <t>1002|50</t>
+  </si>
+  <si>
+    <t>1001|250</t>
   </si>
   <si>
     <t>1004|100</t>
   </si>
   <si>
-    <t>1003|500</t>
-  </si>
-  <si>
-    <t>1001|50</t>
-  </si>
-  <si>
-    <t>1002|120</t>
-  </si>
-  <si>
-    <t>1003|50</t>
-  </si>
-  <si>
-    <t>1004|160</t>
-  </si>
-  <si>
-    <t>1003|750</t>
-  </si>
-  <si>
-    <t>1002|50</t>
-  </si>
-  <si>
-    <t>1001|120</t>
-  </si>
-  <si>
-    <t>1004|50</t>
-  </si>
-  <si>
-    <t>1003|100</t>
-  </si>
-  <si>
-    <t>1004|320</t>
+    <t>1003|300</t>
+  </si>
+  <si>
+    <t>1004|1000</t>
+  </si>
+  <si>
+    <t>1003|200</t>
+  </si>
+  <si>
+    <t>1004|600</t>
+  </si>
+  <si>
+    <t>1003|1400</t>
+  </si>
+  <si>
+    <t>1002|200</t>
+  </si>
+  <si>
+    <t>1004|450</t>
+  </si>
+  <si>
+    <t>1003|1000</t>
+  </si>
+  <si>
+    <t>1004|1600</t>
+  </si>
+  <si>
+    <t>1004|1400</t>
+  </si>
+  <si>
+    <t>1003|2000</t>
+  </si>
+  <si>
+    <t>1004|1200</t>
   </si>
   <si>
     <t>1003|1600</t>
   </si>
   <si>
-    <t>1003|240</t>
-  </si>
-  <si>
-    <t>1004|750</t>
+    <t>1004|2200</t>
+  </si>
+  <si>
+    <t>1004|800</t>
+  </si>
+  <si>
+    <t>1004|2000</t>
   </si>
   <si>
     <t>1003|2400</t>
   </si>
   <si>
-    <t>1004|240</t>
-  </si>
-  <si>
-    <t>1004|1600</t>
-  </si>
-  <si>
-    <t>1003|4000</t>
-  </si>
-  <si>
-    <t>1004|500</t>
-  </si>
-  <si>
-    <t>1003|1000</t>
-  </si>
-  <si>
-    <t>1004|2400</t>
-  </si>
-  <si>
-    <t>1003|6000</t>
-  </si>
-  <si>
-    <t>1004|1000</t>
-  </si>
-  <si>
-    <t>1004|5000</t>
-  </si>
-  <si>
-    <t>1003|8000</t>
-  </si>
-  <si>
-    <t>1004|3200</t>
-  </si>
-  <si>
-    <t>1003|5000</t>
-  </si>
-  <si>
-    <t>1004|7500</t>
-  </si>
-  <si>
-    <t>1003|10000</t>
+    <t>1003|1800</t>
+  </si>
+  <si>
+    <t>1003|2200</t>
+  </si>
+  <si>
+    <t>1004|2600</t>
   </si>
 </sst>
 </file>
@@ -203,50 +191,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,9 +213,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +275,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,7 +304,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -301,31 +312,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,13 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -367,19 +355,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,19 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,139 +505,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,26 +564,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,15 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -650,6 +629,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -659,17 +653,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1181,9 +1169,9 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1370,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="3">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -1388,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -1397,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="3">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -1415,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="3">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="3">
         <v>3</v>
@@ -1424,10 +1412,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1444,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="3">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
@@ -1453,10 +1441,10 @@
         <v>8</v>
       </c>
       <c r="J10" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1470,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -1496,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>200</v>
@@ -1522,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -1534,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="2">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1548,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="2">
         <v>3</v>
@@ -1560,10 +1548,10 @@
         <v>6</v>
       </c>
       <c r="J14" s="2">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="K14" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1577,10 +1565,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="F15" s="2">
         <v>4</v>
@@ -1589,10 +1577,10 @@
         <v>7</v>
       </c>
       <c r="J15" s="2">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K15" s="2">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1606,10 +1594,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
-        <v>18000</v>
+        <v>3600</v>
       </c>
       <c r="F16" s="2">
         <v>5</v>
@@ -1618,10 +1606,10 @@
         <v>8</v>
       </c>
       <c r="J16" s="2">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="K16" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1635,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1662,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1674,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1689,10 +1677,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -1701,10 +1689,10 @@
         <v>5</v>
       </c>
       <c r="J19" s="3">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="K19" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1718,10 +1706,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F20" s="3">
         <v>3</v>
@@ -1730,10 +1718,10 @@
         <v>6</v>
       </c>
       <c r="J20" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1747,10 +1735,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1759,10 +1747,10 @@
         <v>7</v>
       </c>
       <c r="J21" s="3">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K21" s="3">
-        <v>320</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1776,10 +1764,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3">
-        <v>35000</v>
+        <v>4500</v>
       </c>
       <c r="F22" s="3">
         <v>6</v>
@@ -1788,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="K22" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1805,10 +1793,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
@@ -1817,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="2">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1831,10 +1819,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
@@ -1843,10 +1831,10 @@
         <v>4</v>
       </c>
       <c r="J24" s="2">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="K24" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1860,10 +1848,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -1872,10 +1860,10 @@
         <v>5</v>
       </c>
       <c r="J25" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K25" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1889,10 +1877,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
@@ -1901,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="J26" s="2">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K26" s="2">
-        <v>240</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1918,10 +1906,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2">
-        <v>18000</v>
+        <v>3600</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
@@ -1930,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="J27" s="2">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="K27" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1947,10 +1935,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="F28" s="2">
         <v>6</v>
@@ -1959,10 +1947,10 @@
         <v>8</v>
       </c>
       <c r="J28" s="2">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="K28" s="2">
-        <v>2400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1976,10 +1964,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E29" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
@@ -1988,10 +1976,10 @@
         <v>3</v>
       </c>
       <c r="J29" s="3">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="K29" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2005,10 +1993,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
@@ -2017,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="J30" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K30" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2034,10 +2022,10 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E31" s="3">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="F31" s="3">
         <v>4</v>
@@ -2046,10 +2034,10 @@
         <v>5</v>
       </c>
       <c r="J31" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K31" s="3">
-        <v>240</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2066,7 +2054,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="3">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="F32" s="3">
         <v>5</v>
@@ -2075,10 +2063,10 @@
         <v>6</v>
       </c>
       <c r="J32" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K32" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2092,10 +2080,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3">
-        <v>35000</v>
+        <v>4500</v>
       </c>
       <c r="F33" s="3">
         <v>6</v>
@@ -2104,10 +2092,10 @@
         <v>7</v>
       </c>
       <c r="J33" s="3">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="K33" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2121,10 +2109,10 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" s="3">
-        <v>80000</v>
+        <v>6800</v>
       </c>
       <c r="F34" s="3">
         <v>7</v>
@@ -2134,7 +2122,7 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2148,10 +2136,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="F35" s="2">
         <v>4</v>
@@ -2160,10 +2148,10 @@
         <v>3</v>
       </c>
       <c r="J35" s="2">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K35" s="2">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2177,10 +2165,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="F36" s="2">
         <v>4</v>
@@ -2189,10 +2177,10 @@
         <v>4</v>
       </c>
       <c r="J36" s="2">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K36" s="2">
-        <v>240</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2206,10 +2194,10 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E37" s="2">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="F37" s="2">
         <v>5</v>
@@ -2218,10 +2206,10 @@
         <v>5</v>
       </c>
       <c r="J37" s="2">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K37" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2235,10 +2223,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="F38" s="2">
         <v>5</v>
@@ -2247,10 +2235,10 @@
         <v>6</v>
       </c>
       <c r="J38" s="2">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="K38" s="2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2264,10 +2252,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="F39" s="2">
         <v>6</v>
@@ -2276,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="J39" s="2">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="K39" s="2">
-        <v>2400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2293,10 +2281,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2">
-        <v>95000</v>
+        <v>7600</v>
       </c>
       <c r="F40" s="2">
         <v>7</v>
@@ -2305,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="K40" s="2">
-        <v>7500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2319,10 +2307,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="3">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="F41" s="3">
         <v>5</v>
@@ -2331,10 +2319,10 @@
         <v>3</v>
       </c>
       <c r="J41" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K41" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2348,10 +2336,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E42" s="3">
-        <v>18000</v>
+        <v>3600</v>
       </c>
       <c r="F42" s="3">
         <v>5</v>
@@ -2360,10 +2348,10 @@
         <v>4</v>
       </c>
       <c r="J42" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="K42" s="3">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2377,10 +2365,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E43" s="3">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="F43" s="3">
         <v>5</v>
@@ -2389,10 +2377,10 @@
         <v>5</v>
       </c>
       <c r="J43" s="3">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="K43" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2406,10 +2394,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E44" s="3">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="F44" s="3">
         <v>6</v>
@@ -2418,10 +2406,10 @@
         <v>6</v>
       </c>
       <c r="J44" s="3">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="K44" s="3">
-        <v>2400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2435,10 +2423,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E45" s="3">
-        <v>80000</v>
+        <v>6800</v>
       </c>
       <c r="F45" s="3">
         <v>7</v>
@@ -2448,7 +2436,7 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2462,10 +2450,10 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3">
-        <v>125000</v>
+        <v>8400</v>
       </c>
       <c r="F46" s="3">
         <v>7</v>
@@ -2475,7 +2463,7 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <v>10000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2489,10 +2477,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E47" s="2">
-        <v>35000</v>
+        <v>4500</v>
       </c>
       <c r="F47" s="2">
         <v>6</v>
@@ -2501,10 +2489,10 @@
         <v>3</v>
       </c>
       <c r="J47" s="2">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="K47" s="2">
-        <v>1600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2518,10 +2506,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2">
-        <v>48000</v>
+        <v>5000</v>
       </c>
       <c r="F48" s="2">
         <v>6</v>
@@ -2530,10 +2518,10 @@
         <v>4</v>
       </c>
       <c r="J48" s="2">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="K48" s="2">
-        <v>2400</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2547,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2">
-        <v>65000</v>
+        <v>6000</v>
       </c>
       <c r="F49" s="2">
         <v>6</v>
@@ -2559,10 +2547,10 @@
         <v>5</v>
       </c>
       <c r="J49" s="2">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="K49" s="2">
-        <v>3200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2576,10 +2564,10 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E50" s="2">
-        <v>80000</v>
+        <v>6800</v>
       </c>
       <c r="F50" s="2">
         <v>7</v>
@@ -2588,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="K50" s="2">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2602,10 +2590,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E51" s="2">
-        <v>95000</v>
+        <v>7600</v>
       </c>
       <c r="F51" s="2">
         <v>7</v>
@@ -2614,7 +2602,7 @@
         <v>7</v>
       </c>
       <c r="K51" s="2">
-        <v>7500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2628,10 +2616,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="F52" s="2">
         <v>8</v>
@@ -2640,7 +2628,7 @@
         <v>8</v>
       </c>
       <c r="K52" s="2">
-        <v>16000</v>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -74,94 +74,100 @@
     <t>1002|10</t>
   </si>
   <si>
-    <t>主木</t>
-  </si>
-  <si>
-    <t>1001|20</t>
-  </si>
-  <si>
-    <t>1002|150</t>
-  </si>
-  <si>
-    <t>1001|400</t>
+    <t>1002|20</t>
+  </si>
+  <si>
+    <t>1002|50</t>
+  </si>
+  <si>
+    <t>1002|100</t>
   </si>
   <si>
     <t>1004|200</t>
   </si>
   <si>
+    <t>1004|600</t>
+  </si>
+  <si>
+    <t>1001|10</t>
+  </si>
+  <si>
+    <t>1001|30</t>
+  </si>
+  <si>
+    <t>1001|75</t>
+  </si>
+  <si>
+    <t>1003|100</t>
+  </si>
+  <si>
+    <t>1003|300</t>
+  </si>
+  <si>
     <t>1003|800</t>
   </si>
   <si>
-    <t>1001|10</t>
-  </si>
-  <si>
-    <t>1002|50</t>
-  </si>
-  <si>
-    <t>1001|250</t>
+    <t>1002|30</t>
+  </si>
+  <si>
+    <t>1002|75</t>
   </si>
   <si>
     <t>1004|100</t>
   </si>
   <si>
-    <t>1003|300</t>
+    <t>1004|500</t>
+  </si>
+  <si>
+    <t>1004|1200</t>
+  </si>
+  <si>
+    <t>1003|200</t>
+  </si>
+  <si>
+    <t>1003|400</t>
+  </si>
+  <si>
+    <t>1003|1400</t>
+  </si>
+  <si>
+    <t>1004|400</t>
+  </si>
+  <si>
+    <t>1004|1800</t>
+  </si>
+  <si>
+    <t>1003|600</t>
+  </si>
+  <si>
+    <t>1003|1000</t>
+  </si>
+  <si>
+    <t>1003|2000</t>
+  </si>
+  <si>
+    <t>1004|800</t>
   </si>
   <si>
     <t>1004|1000</t>
   </si>
   <si>
-    <t>1003|200</t>
-  </si>
-  <si>
-    <t>1004|600</t>
-  </si>
-  <si>
-    <t>1003|1400</t>
-  </si>
-  <si>
-    <t>1002|200</t>
-  </si>
-  <si>
-    <t>1004|450</t>
-  </si>
-  <si>
-    <t>1003|1000</t>
-  </si>
-  <si>
-    <t>1004|1600</t>
-  </si>
-  <si>
     <t>1004|1400</t>
   </si>
   <si>
-    <t>1003|2000</t>
-  </si>
-  <si>
-    <t>1004|1200</t>
+    <t>1004|2200</t>
+  </si>
+  <si>
+    <t>1003|1200</t>
   </si>
   <si>
     <t>1003|1600</t>
   </si>
   <si>
-    <t>1004|2200</t>
-  </si>
-  <si>
-    <t>1004|800</t>
-  </si>
-  <si>
-    <t>1004|2000</t>
+    <t>1003|1800</t>
   </si>
   <si>
     <t>1003|2400</t>
-  </si>
-  <si>
-    <t>1003|1800</t>
-  </si>
-  <si>
-    <t>1003|2200</t>
-  </si>
-  <si>
-    <t>1004|2600</t>
   </si>
 </sst>
 </file>
@@ -169,9 +175,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -190,6 +196,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -205,9 +227,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +271,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -230,14 +280,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,56 +309,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,7 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,13 +361,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,121 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,21 +566,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +605,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,6 +631,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,25 +667,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +685,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,15 +1172,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
@@ -1278,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1300,15 +1306,8 @@
       <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -1330,12 +1329,8 @@
       <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="3">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1346,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3">
         <v>500</v>
@@ -1357,12 +1352,8 @@
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="3">
-        <v>150</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1373,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3">
         <v>800</v>
@@ -1384,12 +1375,8 @@
       <c r="G8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="3">
-        <v>400</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1400,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3">
         <v>1800</v>
@@ -1411,14 +1398,8 @@
       <c r="G9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1429,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <v>3200</v>
@@ -1440,14 +1421,8 @@
       <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1458,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -1469,11 +1444,8 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="J11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1484,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>200</v>
@@ -1495,11 +1467,8 @@
       <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="J12" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1510,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2">
         <v>650</v>
@@ -1521,11 +1490,8 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="J13" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1536,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>1200</v>
@@ -1547,14 +1513,8 @@
       <c r="G14" s="2">
         <v>6</v>
       </c>
-      <c r="J14" s="2">
-        <v>550</v>
-      </c>
-      <c r="K14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1565,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2">
         <v>2200</v>
@@ -1576,14 +1536,8 @@
       <c r="G15" s="2">
         <v>7</v>
       </c>
-      <c r="J15" s="2">
-        <v>1300</v>
-      </c>
-      <c r="K15" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1594,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2">
         <v>3600</v>
@@ -1605,14 +1559,8 @@
       <c r="G16" s="2">
         <v>8</v>
       </c>
-      <c r="J16" s="2">
-        <v>3000</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1623,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1634,12 +1582,8 @@
       <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="J17" s="3">
-        <v>50</v>
-      </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1650,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3">
         <v>650</v>
@@ -1661,12 +1605,8 @@
       <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
-        <v>250</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1677,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3">
         <v>1200</v>
@@ -1688,14 +1628,8 @@
       <c r="G19" s="3">
         <v>5</v>
       </c>
-      <c r="J19" s="3">
-        <v>550</v>
-      </c>
-      <c r="K19" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1706,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3">
         <v>1800</v>
@@ -1717,14 +1651,8 @@
       <c r="G20" s="3">
         <v>6</v>
       </c>
-      <c r="J20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1735,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3">
         <v>2800</v>
@@ -1746,14 +1674,8 @@
       <c r="G21" s="3">
         <v>7</v>
       </c>
-      <c r="J21" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1764,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="3">
         <v>4500</v>
@@ -1775,14 +1697,8 @@
       <c r="G22" s="3">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1793,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2">
         <v>650</v>
@@ -1804,11 +1720,8 @@
       <c r="G23" s="2">
         <v>3</v>
       </c>
-      <c r="J23" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -1819,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2">
         <v>1200</v>
@@ -1830,14 +1743,8 @@
       <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="J24" s="2">
-        <v>550</v>
-      </c>
-      <c r="K24" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1848,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2">
         <v>1800</v>
@@ -1859,14 +1766,8 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="J25" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -1877,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2">
         <v>2500</v>
@@ -1888,14 +1789,8 @@
       <c r="G26" s="2">
         <v>6</v>
       </c>
-      <c r="J26" s="2">
-        <v>1600</v>
-      </c>
-      <c r="K26" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -1906,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2">
         <v>3600</v>
@@ -1917,14 +1812,8 @@
       <c r="G27" s="2">
         <v>7</v>
       </c>
-      <c r="J27" s="2">
-        <v>3000</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -1946,14 +1835,8 @@
       <c r="G28" s="2">
         <v>8</v>
       </c>
-      <c r="J28" s="2">
-        <v>4500</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1964,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3">
         <v>1200</v>
@@ -1975,14 +1858,8 @@
       <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>550</v>
-      </c>
-      <c r="K29" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1993,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E30" s="3">
         <v>1800</v>
@@ -2004,14 +1881,8 @@
       <c r="G30" s="3">
         <v>4</v>
       </c>
-      <c r="J30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K30" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2022,7 +1893,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3">
         <v>2500</v>
@@ -2033,14 +1904,8 @@
       <c r="G31" s="3">
         <v>5</v>
       </c>
-      <c r="J31" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K31" s="3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2051,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="3">
         <v>3200</v>
@@ -2062,14 +1927,8 @@
       <c r="G32" s="3">
         <v>6</v>
       </c>
-      <c r="J32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2080,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E33" s="3">
         <v>4500</v>
@@ -2091,14 +1950,8 @@
       <c r="G33" s="3">
         <v>7</v>
       </c>
-      <c r="J33" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2120,12 +1973,8 @@
       <c r="G34" s="3">
         <v>8</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2136,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="2">
         <v>2200</v>
@@ -2147,14 +1996,8 @@
       <c r="G35" s="2">
         <v>3</v>
       </c>
-      <c r="J35" s="2">
-        <v>1300</v>
-      </c>
-      <c r="K35" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2165,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2">
         <v>2500</v>
@@ -2176,14 +2019,8 @@
       <c r="G36" s="2">
         <v>4</v>
       </c>
-      <c r="J36" s="2">
-        <v>1600</v>
-      </c>
-      <c r="K36" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2194,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2">
         <v>3200</v>
@@ -2205,14 +2042,8 @@
       <c r="G37" s="2">
         <v>5</v>
       </c>
-      <c r="J37" s="2">
-        <v>2500</v>
-      </c>
-      <c r="K37" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2223,7 +2054,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2">
         <v>4000</v>
@@ -2234,14 +2065,8 @@
       <c r="G38" s="2">
         <v>6</v>
       </c>
-      <c r="J38" s="2">
-        <v>3500</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2252,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2">
         <v>5000</v>
@@ -2263,14 +2088,8 @@
       <c r="G39" s="2">
         <v>7</v>
       </c>
-      <c r="J39" s="2">
-        <v>4500</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2292,11 +2111,8 @@
       <c r="G40" s="2">
         <v>8</v>
       </c>
-      <c r="K40" s="2">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2307,7 +2123,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E41" s="3">
         <v>3200</v>
@@ -2318,14 +2134,8 @@
       <c r="G41" s="3">
         <v>3</v>
       </c>
-      <c r="J41" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2336,7 +2146,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E42" s="3">
         <v>3600</v>
@@ -2347,14 +2157,8 @@
       <c r="G42" s="3">
         <v>4</v>
       </c>
-      <c r="J42" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2365,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E43" s="3">
         <v>4000</v>
@@ -2376,14 +2180,8 @@
       <c r="G43" s="3">
         <v>5</v>
       </c>
-      <c r="J43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2394,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E44" s="3">
         <v>5000</v>
@@ -2405,14 +2203,8 @@
       <c r="G44" s="3">
         <v>6</v>
       </c>
-      <c r="J44" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2423,7 +2215,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E45" s="3">
         <v>6800</v>
@@ -2434,12 +2226,8 @@
       <c r="G45" s="3">
         <v>7</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2450,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" s="3">
         <v>8400</v>
@@ -2461,12 +2249,8 @@
       <c r="G46" s="3">
         <v>8</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -2477,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E47" s="2">
         <v>4500</v>
@@ -2488,14 +2272,8 @@
       <c r="G47" s="2">
         <v>3</v>
       </c>
-      <c r="J47" s="2">
-        <v>4000</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -2517,14 +2295,8 @@
       <c r="G48" s="2">
         <v>4</v>
       </c>
-      <c r="J48" s="2">
-        <v>4500</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -2535,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2">
         <v>6000</v>
@@ -2546,14 +2318,8 @@
       <c r="G49" s="2">
         <v>5</v>
       </c>
-      <c r="J49" s="2">
-        <v>5000</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -2564,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E50" s="2">
         <v>6800</v>
@@ -2575,11 +2341,8 @@
       <c r="G50" s="2">
         <v>6</v>
       </c>
-      <c r="K50" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -2590,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E51" s="2">
         <v>7600</v>
@@ -2601,11 +2364,8 @@
       <c r="G51" s="2">
         <v>7</v>
       </c>
-      <c r="K51" s="2">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -2616,7 +2376,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E52" s="2">
         <v>10000</v>
@@ -2626,9 +2386,6 @@
       </c>
       <c r="G52" s="2">
         <v>8</v>
-      </c>
-      <c r="K52" s="2">
-        <v>2600</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,40 +77,40 @@
     <t>1002|20</t>
   </si>
   <si>
-    <t>1002|50</t>
+    <t>1002|60</t>
+  </si>
+  <si>
+    <t>1002|150</t>
+  </si>
+  <si>
+    <t>1004|200</t>
+  </si>
+  <si>
+    <t>1004|600</t>
+  </si>
+  <si>
+    <t>1001|10</t>
+  </si>
+  <si>
+    <t>1001|30</t>
+  </si>
+  <si>
+    <t>1001|100</t>
+  </si>
+  <si>
+    <t>1003|100</t>
+  </si>
+  <si>
+    <t>1003|300</t>
+  </si>
+  <si>
+    <t>1003|800</t>
+  </si>
+  <si>
+    <t>1002|30</t>
   </si>
   <si>
     <t>1002|100</t>
-  </si>
-  <si>
-    <t>1004|200</t>
-  </si>
-  <si>
-    <t>1004|600</t>
-  </si>
-  <si>
-    <t>1001|10</t>
-  </si>
-  <si>
-    <t>1001|30</t>
-  </si>
-  <si>
-    <t>1001|75</t>
-  </si>
-  <si>
-    <t>1003|100</t>
-  </si>
-  <si>
-    <t>1003|300</t>
-  </si>
-  <si>
-    <t>1003|800</t>
-  </si>
-  <si>
-    <t>1002|30</t>
-  </si>
-  <si>
-    <t>1002|75</t>
   </si>
   <si>
     <t>1004|100</t>
@@ -175,9 +175,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -197,23 +197,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,15 +236,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,15 +278,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,17 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,36 +332,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -361,133 +361,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,19 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,18 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,11 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,13 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,21 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -644,17 +639,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,16 +685,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,115 +703,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1177,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,8 +176,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -196,11 +196,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,16 +234,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -257,63 +264,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,13 +287,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -361,31 +361,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,127 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,17 +570,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,31 +635,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -638,45 +667,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +685,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1177,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D52"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -74,7 +74,7 @@
     <t>1002|10</t>
   </si>
   <si>
-    <t>1002|20</t>
+    <t>1002|30</t>
   </si>
   <si>
     <t>1002|60</t>
@@ -83,10 +83,10 @@
     <t>1002|150</t>
   </si>
   <si>
-    <t>1004|200</t>
-  </si>
-  <si>
-    <t>1004|600</t>
+    <t>1002|400</t>
+  </si>
+  <si>
+    <t>1002|1000</t>
   </si>
   <si>
     <t>1001|10</t>
@@ -98,70 +98,67 @@
     <t>1001|100</t>
   </si>
   <si>
-    <t>1003|100</t>
-  </si>
-  <si>
-    <t>1003|300</t>
-  </si>
-  <si>
-    <t>1003|800</t>
-  </si>
-  <si>
-    <t>1002|30</t>
+    <t>1001|200</t>
+  </si>
+  <si>
+    <t>1001|500</t>
+  </si>
+  <si>
+    <t>1001|1200</t>
   </si>
   <si>
     <t>1002|100</t>
   </si>
   <si>
-    <t>1004|100</t>
-  </si>
-  <si>
-    <t>1004|500</t>
-  </si>
-  <si>
-    <t>1004|1200</t>
-  </si>
-  <si>
-    <t>1003|200</t>
-  </si>
-  <si>
-    <t>1003|400</t>
-  </si>
-  <si>
-    <t>1003|1400</t>
-  </si>
-  <si>
-    <t>1004|400</t>
+    <t>1002|200</t>
+  </si>
+  <si>
+    <t>1002|800</t>
+  </si>
+  <si>
+    <t>1002|1800</t>
+  </si>
+  <si>
+    <t>1001|400</t>
+  </si>
+  <si>
+    <t>1001|600</t>
+  </si>
+  <si>
+    <t>1001|2100</t>
+  </si>
+  <si>
+    <t>1002|600</t>
   </si>
   <si>
     <t>1004|1800</t>
   </si>
   <si>
-    <t>1003|600</t>
-  </si>
-  <si>
-    <t>1003|1000</t>
+    <t>1001|1000</t>
+  </si>
+  <si>
+    <t>1001|1500</t>
   </si>
   <si>
     <t>1003|2000</t>
   </si>
   <si>
-    <t>1004|800</t>
-  </si>
-  <si>
-    <t>1004|1000</t>
-  </si>
-  <si>
-    <t>1004|1400</t>
+    <t>1002|1200</t>
+  </si>
+  <si>
+    <t>1002|1500</t>
+  </si>
+  <si>
+    <t>1002|2100</t>
   </si>
   <si>
     <t>1004|2200</t>
   </si>
   <si>
-    <t>1003|1200</t>
-  </si>
-  <si>
-    <t>1003|1600</t>
+    <t>1001|1800</t>
+  </si>
+  <si>
+    <t>1001|2500</t>
   </si>
   <si>
     <t>1003|1800</t>
@@ -176,9 +173,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,18 +193,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,7 +209,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -233,9 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,8 +246,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +272,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,10 +300,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,24 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,27 +330,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -361,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,10 +569,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -596,6 +600,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -611,15 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -631,15 +637,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,7 +1174,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1571,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1594,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3">
         <v>650</v>
@@ -1617,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3">
         <v>1200</v>
@@ -1663,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3">
         <v>2800</v>
@@ -1686,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3">
         <v>4500</v>
@@ -1755,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2">
         <v>1800</v>
@@ -1778,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2">
         <v>2500</v>
@@ -1824,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2">
         <v>5000</v>
@@ -1847,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="3">
         <v>1200</v>
@@ -1893,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3">
         <v>2500</v>
@@ -1939,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="3">
         <v>4500</v>
@@ -1962,7 +1959,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="3">
         <v>6800</v>
@@ -2008,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2">
         <v>2500</v>
@@ -2031,7 +2028,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2">
         <v>3200</v>
@@ -2054,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2">
         <v>4000</v>
@@ -2077,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="2">
         <v>5000</v>
@@ -2100,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2">
         <v>7600</v>
@@ -2146,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="3">
         <v>3600</v>
@@ -2169,7 +2166,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="3">
         <v>4000</v>
@@ -2192,7 +2189,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="3">
         <v>5000</v>
@@ -2215,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="3">
         <v>6800</v>
@@ -2238,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3">
         <v>8400</v>
@@ -2261,7 +2258,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2">
         <v>4500</v>
@@ -2284,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" s="2">
         <v>5000</v>
@@ -2307,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="2">
         <v>6000</v>
@@ -2330,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="2">
         <v>6800</v>
@@ -2353,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2">
         <v>7600</v>
@@ -2376,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E52" s="2">
         <v>10000</v>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -149,7 +149,7 @@
     <t>1002|1500</t>
   </si>
   <si>
-    <t>1002|2100</t>
+    <t>1002|3150</t>
   </si>
   <si>
     <t>1004|2200</t>
@@ -172,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -195,9 +195,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,10 +248,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,7 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,16 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,29 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,14 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -314,26 +329,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -358,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,11 +567,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +598,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,28 +626,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,26 +656,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,9 +1172,9 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityLivableRoom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,91 +80,91 @@
     <t>1002|60</t>
   </si>
   <si>
+    <t>1002|120</t>
+  </si>
+  <si>
+    <t>1002|210</t>
+  </si>
+  <si>
+    <t>1002|400</t>
+  </si>
+  <si>
+    <t>1001|10</t>
+  </si>
+  <si>
+    <t>1001|30</t>
+  </si>
+  <si>
+    <t>1001|90</t>
+  </si>
+  <si>
+    <t>1001|150</t>
+  </si>
+  <si>
+    <t>1001|250</t>
+  </si>
+  <si>
+    <t>1001|500</t>
+  </si>
+  <si>
+    <t>1002|90</t>
+  </si>
+  <si>
     <t>1002|150</t>
   </si>
   <si>
-    <t>1002|400</t>
-  </si>
-  <si>
-    <t>1002|1000</t>
-  </si>
-  <si>
-    <t>1001|10</t>
-  </si>
-  <si>
-    <t>1001|30</t>
-  </si>
-  <si>
-    <t>1001|100</t>
-  </si>
-  <si>
-    <t>1001|200</t>
-  </si>
-  <si>
-    <t>1001|500</t>
+    <t>1002|350</t>
+  </si>
+  <si>
+    <t>1002|800</t>
+  </si>
+  <si>
+    <t>1001|210</t>
+  </si>
+  <si>
+    <t>1001|300</t>
+  </si>
+  <si>
+    <t>1001|1000</t>
+  </si>
+  <si>
+    <t>1002|300</t>
+  </si>
+  <si>
+    <t>1004|1000</t>
+  </si>
+  <si>
+    <t>1001|400</t>
+  </si>
+  <si>
+    <t>1001|600</t>
+  </si>
+  <si>
+    <t>1003|1200</t>
+  </si>
+  <si>
+    <t>1002|500</t>
+  </si>
+  <si>
+    <t>1002|600</t>
+  </si>
+  <si>
+    <t>1002|1500</t>
+  </si>
+  <si>
+    <t>1004|1500</t>
+  </si>
+  <si>
+    <t>1001|800</t>
   </si>
   <si>
     <t>1001|1200</t>
   </si>
   <si>
-    <t>1002|100</t>
-  </si>
-  <si>
-    <t>1002|200</t>
-  </si>
-  <si>
-    <t>1002|800</t>
-  </si>
-  <si>
-    <t>1002|1800</t>
-  </si>
-  <si>
-    <t>1001|400</t>
-  </si>
-  <si>
-    <t>1001|600</t>
-  </si>
-  <si>
-    <t>1001|2100</t>
-  </si>
-  <si>
-    <t>1002|600</t>
-  </si>
-  <si>
-    <t>1004|1800</t>
-  </si>
-  <si>
-    <t>1001|1000</t>
-  </si>
-  <si>
-    <t>1001|1500</t>
-  </si>
-  <si>
-    <t>1003|2000</t>
-  </si>
-  <si>
-    <t>1002|1200</t>
-  </si>
-  <si>
-    <t>1002|1500</t>
-  </si>
-  <si>
-    <t>1002|3150</t>
-  </si>
-  <si>
-    <t>1004|2200</t>
-  </si>
-  <si>
-    <t>1001|1800</t>
-  </si>
-  <si>
-    <t>1001|2500</t>
+    <t>1003|1000</t>
   </si>
   <si>
     <t>1003|1800</t>
-  </si>
-  <si>
-    <t>1003|2400</t>
   </si>
 </sst>
 </file>
@@ -172,9 +172,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -193,33 +193,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,15 +229,44 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -263,29 +281,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,8 +321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,29 +336,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -358,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +584,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,9 +626,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,40 +664,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,9 +1172,9 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
